--- a/条款比对报告.xlsx
+++ b/条款比对报告.xlsx
@@ -34,7 +34,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -51,6 +51,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFC7CE"/>
         <bgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEB9C"/>
+        <bgColor rgb="00FFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -92,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -107,6 +113,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -607,56 +616,29 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>机器损坏保险条款</t>
+          <t>保单文本中列明的除外条款</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>总则
-第一条  本保险合同由保险条款、投保单、保险单或其他保险凭证以及批单组成。凡涉及本保险合同的约定，均应采用书面形式。
-保险标的
-第二条  本保险合同载明的机器及附属设备，均可作为保险标的。
-保险责任
-第三条  在保险期间内，因下列原因引起或构成突然的、不可预料的意外事故造成的物质损坏或灭失(以下简称“损失”)，保险人按照本保险合同的约定负责赔偿：
-(一) 设计、制造或安装错误、铸造和原材料缺陷；
-(二) 工人、技术人员操作错误、缺乏经验、技术不善、疏忽、过失、恶意行为；
-(三) 离心力引起的断裂；
-(四) 超负荷、超电压、碰线、电弧、漏电、短路、大气放电、感应电及其他电气原因；
-（五）除本条款中“责任免除”规定以外的其他原因。
-第四条  保险事故发生后，被保险人为防止或减少保险标的的损失所支付的必要的、合理的费用，保险人按照本保险合同的约定也负责赔偿。
-责任免除
-第五条  下列原因造成的损失、费用，保险人不负责赔偿：
-（一）被保险人及其代表的故意或重大过失行为；
-（二）被保险人及其代表已经知道或应该知道的保险机器及其附属设备在本保险开始前已经存在的缺点或缺陷；
-（三）战争、类似战</t>
-        </is>
-      </c>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加机器损坏保险（2025版C款）条款</t>
+          <t>企业财产保险附加供应中断除外条款（A款）</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112149433</t>
+          <t>C00001430622025112039303</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>投保人只有在投保了《财产基本险》、《财产综合险》或《财产一切险》 后，方可投保本附加险。
-兹经双方同意，本附加险扩展承保被保险财产中的机器及附属设备因下列原因引起的突然的、不可预料的意外事故所导致的物质损失或灭失，保险人按本保险单的规定负责赔偿，包括：
-设计、制造或安装错误、铸造和原材料缺陷；
-工人、技术人员操作错误、缺乏经验、技术不善、疏忽、过失、恶意行为；
-离心力引起的断裂 ；
-超负荷、超电压、碰线、电弧、漏电、短路、大气放电、感应电及其他电气原因。
-每次事故最高赔偿限额由保险双方约定并在保单中载明。
-本附加险根据保险单的约定收取保险费。
-本保单所载其他条件不变。</t>
+          <t>兹经双方同意，由于被保险人拥有财产所有权的自用的供电、供水、供气等能源供应中断造成保险标的的损失，保险人不负责赔偿。
+本保险单所载其他条件不变。</t>
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.424</v>
+        <v>0.375</v>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
@@ -665,28 +647,22 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加机器损坏保险（B款）条款</t>
+          <t>企业财产保险（集成电路行业专属2025版）附加供应中断除外条款</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025111934513</t>
+          <t>C00001430622025112151133</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，本附加险扩展承保被保险财产中的机器设备（含工程车辆）及附属设备因意外事故造成的物质损失或灭失（以下简称“损失”），不论机器是否正在运作或休息，或因清洁、检查、维修、安装而被拆散、移动或重新安装，保险人按保单规定负责赔偿，包括：
-一、设计、制造或安装错误、铸造和原材料缺陷；
-二、工人、技术人员操作错误、缺乏经验、技术不善、疏忽、过失、恶意行为；
-三、离心力引起的断裂；
-四、超负荷、超电压、碰线、电弧、漏电、短路、大气放电、感应电及其他电气原因；
-五、锅炉缺水。
-本附加险根据保险单的约定收取保险费。
+          <t>经双方同意并约定，由于被保险人拥有财产所有权的自用的供电、供水、供气等能源供应中断造成保险标的的损失，保险人不负责赔偿。
 本保险单所载其他条件不变。</t>
         </is>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.421</v>
+        <v>0.375</v>
       </c>
       <c r="N2" s="3" t="inlineStr">
         <is>
@@ -695,30 +671,22 @@
       </c>
       <c r="O2" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险（集成电路行业专属2025版）附加机器损坏险扩展条款</t>
+          <t>企业财产保险附加扩展承保中国境内未列明保险地点条款</t>
         </is>
       </c>
       <c r="P2" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112149353</t>
+          <t>C00001430622025112455623</t>
         </is>
       </c>
       <c r="Q2" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，在保险期间内，若本保险单明细表中列明的被保险机器及附属设备因下列原因引起或构成突然的、不可预料的意外事故造成的物质损坏或灭失（以下简称“损失”），保险人按本保险单的规定负责赔偿：
-（一）设计、制造或安装错误、铸造和原材料缺陷；
-（二）工人、技术人员操作错误、缺乏经验、技术不善、疏忽、过失、恶意行为；
-（三）超负荷、超电压、碰线、电弧、漏电、短路、大气放电、感应电及其他电气原因。
-保险人对由于下列原因直接或间接引起的损失、费用和责任不负责赔偿：
-（一）机器设备运行必然引起的后果，如自然磨损、氧化、腐蚀、锈蚀、孔蚀、锅垢等物理性变化或化学反应；
-（二）各种传送带、缆绳、金属线、链条、轮胎、可调换或替代的钻头、钻杆、刀具、印刷滚筒、套筒、活动管道、玻璃、磁、陶及钢筛、网筛、毛毡制品、一切操作中的媒介物（如润滑油、燃料、催化剂等）及其他各种易损、易耗品；
-（三）被保险人及其代表已经知道或应该知道的被保险机器及其附属设备在本保险开始前已经存在的缺点或缺陷；
-（四）根据法律或契约应由供货方、制造人、安装人或修理人负责的损失或费用；
-（五）由于公共设施部门的限制性供应及故意行为或</t>
+          <t>兹经双方同意并约定，保险人同意扩展承保被保险人存放于中国境内未列明地址内的，为被保险人所有或须承担责任之财产，因发生保险事故而致损坏或灭失所形成的损失。但每一地点的赔偿金额将不超过保险单载明的双方约定的赔偿限额。
+本保险单所载其他条件不变。</t>
         </is>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.408</v>
+        <v>0.364</v>
       </c>
       <c r="S2" s="3" t="inlineStr">
         <is>
@@ -732,39 +700,33 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Airfreight Clause (Limit: 30% of loss)</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>空运费扩展条款</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>It is agreed and understood that this insurance shall be extended to cover extra charges for airfreight. Provided always that such extra charges shall be incurred in connection with any loss of or damage to the insured items recoverable under the Policy.
-Provided further that the maximum amount payable under this Endorsement in respect of airfreight shall not exceed the amount stated below during the period of insurance.
-This Clause is subject otherwise to the terms, conditions and exceptions of</t>
-        </is>
-      </c>
+          <t>2000年责任除外条款</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加空运费条款 (Limit: 30% of loss)</t>
+          <t>企业财产保险附加财产险2000年问题除外条款</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112039963</t>
+          <t>C00001430622025112038153</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，本保险扩展承保空运费，该空运费须与本保险项下予以赔偿的保险财产的损失有关，但本条款项下最高赔偿金额不超过保险双方约定并在保险单中列明的每次事故赔偿限额。
-本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.4</v>
+          <t>兹经双方同意，本条款“2000年问题”系指，因涉及2000年日期变更，或此前、期间、其后任何其他日期变更，包括闰年的计算，直接或间接引起计算机硬件设备、程序、软件、芯片、媒介物、集成电路及其他电子设备中的类似装置的故障，进而直接或间接引起和导致保险财产的损失或损坏问题。保险人对由于下列原因，无论计算机设备是否属于被保险人所有，直接或间接导致、构成或引起保险财产损失或损坏，由此产生的直接损失或间接损失不负赔偿责任：
+（一）不能正确识别日期；
+（二）由于不能正确识别日期，而导致无法读取、存储、保留、检索、操作、判别、处理任何数据或信息，或执行命令和指令；
+（三）在任何日期或该日期之后，由于编程输入任何计算机软件的操作命令引起的数据丢失，或不能读取、储存、保留、检索、操作、判别、处理该类数据；
+（四）因涉及2000年日期变更，或任何其他日期变更，包括闰年的计算，而不能进行计算、比较、识别、排序和数据处理；
+（五）因涉及2000年日期变更，或任何其他日期变更，包括闰年的计算，对包括计算机、硬件设备、程序、芯片、媒介物、集成电路及其他电子设备中的类似装置进行预防性的、治理性的、或其他性质的更换、</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>0.6</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
@@ -773,50 +735,50 @@
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险（集成电路行业专属2025版）附加空运费条款 (Limit: 30% of loss)</t>
+          <t>企业财产保险（集成电路行业专属2025版）附加财产险2000年问题除外条款</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112152043</t>
+          <t>C00001430622025112151183</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，本附加险扩展承保空运费，该空运费须与本保险项下予以赔偿的保险财产的损失有关，但本条款项下最高赔偿金额不超过保险单列明的每次事故赔偿限额。
-本附加险根据保险单的约定收取保险费。
+          <t>兹经双方同意并约定，本条款“2000年问题”系指，因涉及2000年日期变更，或此前、期间、其后任何其他日期变更，包括闰年的计算，直接或间接引起计算机硬件设备、程序、软件、芯片、媒介物、集成电路及其他电子设备中的类似装置的故障，进而直接或间接引起和导致保险财产的损失或损坏问题。保险人对由于下列原因，无论计算机设备是否属于被保险人所有，直接或间接导致、构成或引起保险财产损失或损坏，由此产生的直接损失或间接损失不负赔偿责任：
+（一）不能正确识别日期；
+（二）由于不能正确识别日期，而导致无法读取、存储、保留、检索、操作、判别、处理任何数据或信息，或执行命令和指令；
+（三）在任何日期或该日期之后，由于编程输入任何计算机软件的操作命令引起的数据丢失，或不能读取、储存、保留、检索、操作、判别、处理该类数据；
+（四）因涉及2000年日期变更，或任何其他日期变更，包括闰年的计算，而不能进行计算、比较、识别、排序和数据处理；
+（五）因涉及2000年日期变更，或任何其他日期变更，包括闰年的计算，对包括计算机、硬件设备、程序、芯片、媒介物、集成电路及其他电子设备中的类似装置进行预防性的、治理性的、或其他性质的</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加洪水除外条款（A款）</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112039233</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，由于洪水造成保险标的的损失，保险人不负责赔偿。
 本保险单所载其他条件不变。</t>
         </is>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>模糊匹配</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>企业财产保险附加加费条款 (Limit: 30% of loss)</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>C00001430622025112038223</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>兹经双方同意，如在任一保险期间内，与“毛利润/营业收入”对应的、经被保险人审计师核证的与任何保险期最接近同期的十二个月会计期间所实际实现的金额高于相应分项保险金额，则就超出部分被保险人须按该分项保险金额在该保险期间内已缴保费的比例补缴附加保费，该附加保费率以保险单约定为准。
-双方明确约定：
-无论任何情形，保险人对因保险事故所致之赔偿责任，以保险单约定为限；
-且无论如何，保险人的赔偿金额不得超过被保险人实际遭受的损失金额。
-本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.16</v>
+      <c r="R3" s="5" t="n">
+        <v>0.571</v>
       </c>
       <c r="S3" s="3" t="inlineStr">
         <is>
@@ -830,41 +792,31 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Automatic Reinstatement of Sum insured</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>自动恢复保险金额条款</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>It is agreed and understood that in the event of loss or damage to the insured property described in the Schedule of this Policy, the amount payable for such loss or damage shall be automatically reinstated from the time of the happening and the Insured shall pay an additional premium within seven days after payment of loss therefore calculated pro rata from the date of loss to the expiration of this Policy.
-This Clause is subject otherwise to the terms, conditions and exceptions    of this Poli</t>
-        </is>
-      </c>
+          <t>72小时条款</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加自动恢复保险金额条款</t>
+          <t>企业财产保险附加时间调整（72小时）条款</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112455833</t>
+          <t>C00001430622025111826033</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险通用附加险条款适用于各类企业财产保险。
-兹经双方同意，本保险单项下各项保险财产的保险金额不因损失而减少。如受损标的的赔偿金额超过保险单明细表对应项目保险金额的按保险单载明的比例时，应保险人要求，被保险人需补缴自损失发生之日起至保险期限终止之日止超出按保险单载明的比例部分的按日比例计算的附加保险费。
-本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
+          <t>兹经双方同意，在发生暴风、暴雨、暴雪、台风、洪水、地震、海啸、火山爆发、暴动、罢工、民众骚乱、恐怖活动或其它连续发生的自然灾害或意外事故时，在72小时内因此风险所导致的损失被视为一次事故，并构成一次免赔额。被保险人可以自行决定前述72小时期限的起始时间，但任何两个72小时期限不得重叠。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -886,43 +838,31 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Automatic Cover for New Locations (Limit: RMB10, 000,000 subject to 90 days reporting period)</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>自动承保条款</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed and understood that the insurance by this Policy shall automatically cover the property at newly acquired location of the insured, subject to declaration to the Company within 90 days upon Insured acquiring such property and an additional premium shall be payable.
-Subject otherwise to the terms exceptions and conditions of this policy.</t>
-        </is>
-      </c>
+          <t>80%共保条款</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加自动承保新获取资产、新增地点条款</t>
+          <t>企业财产保险附加80%共保条款（B款）</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025121595093</t>
+          <t>C00001430622025112041493</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，本保险单扩展承保：
-1.属于被保险人、其子公司或合伙人的在任何新地点的财产和存货；
-2.对本保单列明地址及前述第1项地址范围内财产和存货的变更、增添和改进。
-本条款所述费用在本保险单明细表所列保险金额之外另行赔付；每次事故赔偿限额为本保险单总保险金额的约定比例；被保险人应在获知新增地点或财产和存货发生变更、增添或改进之日起60日内书面告知保险人。
-本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
+          <t>兹经双方同意，如本保险合同其它内容与本条款不符，以本条款为准。如果出险时总保险金额低于被保险人实际拥有财产价值的80%，被保险人将被视为该差额部分的自保人而按比例承担损失；但是，如果保险金额不低于其财产价值的80%，则视同被保险人足额投保，被保险人将得到全部的赔偿而免受比例赔付的损失。此条款应与“自动升值”条款一并解读,即保险金额应为计算自动升值后的金额,以厘定被保险人应否承担比例赔付。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -944,96 +884,45 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Average Relief Clause (80%)</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>分摊豁免条款</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed if at the time of replacement or reinstatement the sum representing the cost which would have been incurred in replacement or reinstatement if the whole of the property covered had been destroyed, exceeds the sum insured hereon by more than 80% at the breaking out of any fire or at the commencement of any destruction of or damage to such property by any peril insured against by this Policy, then the Insured shall be considered as being his own insurer for the excess and shall</t>
-        </is>
-      </c>
+          <t>不受控制条款</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加分摊减免条款 (80%)</t>
+          <t>企业财产保险附加不受控制条款（A款）</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112041703</t>
+          <t>C00001430622025111825473</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，若发生火灾或本保险单项下其他承保风险造成保险财产全损需进行重置，在财产损毁开始之时应予发生的重置费用，超出保险金额达双方约定并在保险单中载明的金额以上，则被保险人将被视为超出部分的自保人，并将相应地按比例承担损失。保险单中与本附加条款有关的每一项目应分别适用前述规定。
+          <t>兹经双方同意，被保险人在占用或使用营业场所时，由于不知情或远非其所能控制的事件发生造成的遗漏申报或任何行为，不会影响本保险单的有效性，一旦被保险人知道应立即通知保险人并按要求支付适当的附加保险费。
 本保险单所载其他条件不变。</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>模糊匹配</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>企业财产保险附加免赔额豁免条款 (80%)</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>C00001430622025112039733</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
-        <is>
-          <t>兹经双方同意，因保险单承保的地点内被保险财产发生保险责任范围内的损失导致营业中断而提起的索赔，不能以损失金额在保险单规定的免赔额之内在主险保险单项下不予赔偿而作为营业中断损失责任的前提条件。
-本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
-        </is>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="N6" s="3" t="inlineStr">
-        <is>
-          <t>模糊匹配</t>
-        </is>
-      </c>
-      <c r="O6" s="3" t="inlineStr">
-        <is>
-          <t>企业财产保险附加财产险运输险责任分摊条款 (80%)</t>
-        </is>
-      </c>
-      <c r="P6" s="3" t="inlineStr">
-        <is>
-          <t>C00001430622025112042033</t>
-        </is>
-      </c>
-      <c r="Q6" s="3" t="inlineStr">
-        <is>
-          <t>兹经双方同意，保险人要求：
-(一)一旦原材料及设备运抵被保险处，被保险人应立即检验其运输途中可能发生的损失，若裸装货物损失明显，被保险人应在运输险保险单下提出索赔。
-(二)若包装的货物未立即开箱，需放置一段时间（该时间不得超过CONCEALED DAMAGE CLAUSE条款中约定的期限90天），则被保险人应观察检验外包装是否有货损迹象。若货损迹象明显,被保险人应在运输险保险单下提出索赔。
-(三)若货物外包装无货损迹象，并且货物仍处于包装状态，直至货物开箱时才发现损失，该损失将视作发生在运输期间,除非从损失的性质上有明显的证据表明损失确系发生在运输保险终止后。
-(四)若无明显证据确定损失的发生时间，则该损失将由运输保险及本保险各分摊50%，
-本条款每次事故免赔额：由保险双方约定并在保险单中载明。
-本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="S6" s="3" t="inlineStr">
-        <is>
-          <t>模糊匹配</t>
-        </is>
-      </c>
+      <c r="H6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr"/>
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="inlineStr"/>
+      <c r="O6" s="3" t="inlineStr"/>
+      <c r="P6" s="3" t="inlineStr"/>
+      <c r="Q6" s="3" t="inlineStr"/>
+      <c r="R6" s="3" t="inlineStr"/>
+      <c r="S6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -1041,91 +930,46 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Capital Additions Clause(Limit:10% of sum insured)</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>增加资产扩展条款</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>It is agreed and understood that this Policy shall be extended to cover additions and extensions to property insured in the People's Republic of China, but not appreciation in value, made after the commencement of this Policy for an amount not exceeding 10%of sum insured of the sum insured on similar property under the relative item, it being understood that the Insured shall declare quarterly the value of any such additions and extensions and pay an additional premium therefore calculated pro r</t>
-        </is>
-      </c>
+          <t>专业费用及索赔准备费用条款（每次事故赔偿限额为理算金额的20%）</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加增加资产扩展条款（2025版B款） (Limit:10% of sum insured)</t>
+          <t>企业财产保险附加专业费用条款</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112463863</t>
+          <t>C00001430622025112039993</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>经双方同意，本保险合同生效后，被保险人在中华人民共和国境内新增加的资产，但不包括财产本身的升值及存货，保险人按照本保险合同的约定承担保险责任，但在保险期间内新增加资产的金额应不超过本保险合同中载明的相应限额（总保险金额由投保人与保险人协商确定），且被保险人须（由投保人与保险人协商确定）日内申报增加资产的价值。
-本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>模糊匹配</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>企业财产保险附加增加资产条款(A款） (Limit:10% of sum insured)</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>C00001430622025112150863</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>兹经双方同意并约定，本保险扩展承保本保险生效后被保险人在中华人民共和国境内所增加的资产，但不包括财产的自动升值，增加资产的金额以不超过保险单约定的相关项下类似财产保额的比例为限。被保险人须每个季度申报增加资产的价值。
-本附加险根据保险单的约定收取保险费。本保险单所载其它条件不变。</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N7" s="3" t="inlineStr">
-        <is>
-          <t>模糊匹配</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="inlineStr">
-        <is>
-          <t>企业财产保险附加增加资产条款（B款） (Limit:10% of sum insured)</t>
-        </is>
-      </c>
-      <c r="P7" s="3" t="inlineStr">
-        <is>
-          <t>C00001430622025112040573</t>
-        </is>
-      </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>兹经双方同意并约定，本保险单扩展承保本保险生效后被保险人在中华人民共和国境内所增加的财产，但不包括财产的自动升值，增加资产的金额以不超过相关项下类似财产保额的一定比例（由保险双方约定并在保险单中载明）为限。被保险人须每个季度申报增加资产的价值，并按日比例交付自新增部分开始日起的附加保险费。
-本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S7" s="3" t="inlineStr">
-        <is>
-          <t>模糊匹配</t>
-        </is>
-      </c>
+          <t>兹经双方同意，保险人负责赔偿被保险人因保险人保险单项下承保风险造成保险财产损失后，在重置过程中发生的必要的设计师、检验师及工程咨询人费用，但不包括被保险人为了准备索赔或估损所发生的任何费用。上述赔偿费用应以财产损失时适用的有关行业管理部门的收费规定为准，但保险人在本扩展条款项下的赔偿责任不得超过以下列明的限额。
+赔偿限额由保险双方约定并在保险单中载明。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件均不变。</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr"/>
+      <c r="N7" s="3" t="inlineStr"/>
+      <c r="O7" s="3" t="inlineStr"/>
+      <c r="P7" s="3" t="inlineStr"/>
+      <c r="Q7" s="3" t="inlineStr"/>
+      <c r="R7" s="3" t="inlineStr"/>
+      <c r="S7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -1133,36 +977,32 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Breach of Condition Clause</t>
+          <t>临时移动扩展条款（限额：总保险金额的10%）</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed and understood that the conditions and warranties of this Policy shall apply individually to each of the risks insured and not collectively to them. Thus a breach in any condition or warranty shall void the section only in respect of all the risks to which that breach applied and does not affect the section in respect of the other risks.
-This Clause is subject otherwise to the terms, conditions and exclusions of this policy.</t>
-        </is>
-      </c>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加违反保单条件条款（A款）</t>
+          <t>企业财产保险附加临时移动条款（C款）</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025111933263</t>
+          <t>C00001430622025112455793</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，本保险单的条件和保证将分别适用于每一承保风险，而非共同适用于所有承保风险。因此，对某些条件和保证的违反仅使该违反所适用风险的那一部分保障失效，不影响对其他风险保障的有效性。
-本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
+          <t>企业财产保险通用附加险条款适用于各类企业财产保险。
+经双方同意，本保险单扩展承保保险财产在被保险人营业/办公场所内、营业/办公场所之间的临时移动过程中，包括为移动目的置于停放在保险财产地址内的车辆中，或为清洁、维修、修理或其他类似目的在中华人民共和国境内由公路、铁路往返运输途中，因自然灾害或意外事故而遭受的直接物质损失。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -1184,39 +1024,31 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Co-Insurance Clause</t>
+          <t>优先使用原供应商条款</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>In consideration of the Insured named in the Schedule hereto having paid or agreed to pay the premium set forth in the said Schedule to the Insurers who have subscribed their Names in the Policy (hereinafter referred to as “the Coinsurers”)
-The Coinsurers hereby severally agree each for the proportion set against its name to indemnify the Insured or the Insured’s legal personal representatives by payment or at the option of the Coinsurers by reinstatement, repair or replacement in accordance wit</t>
-        </is>
-      </c>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加共保人条款</t>
+          <t>企业财产保险附加优先使用原供应商条款（2025版）</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112151023</t>
+          <t>C00001430622025112465953</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>兹经本保险单明细表中列明的被保险人和/或投保人要求，并且投保人已经或同意向本批单载明的各保险人（以下简称共保人）支付前述明细表中载明的保险费。
-共保人同意按照各自承保的比例根据本批单的条款、条件选择现金赔付、修复或重置的方式，对被保险人负赔偿责任。
-（1）共保人对保险责任范围内损失的任何赔偿责任将不超过本保险单明细表中所载的保险金额和／或责任限额，或其他经共保人签发或代表共保人签发的批单中注明的保险金额和／或责任限额。
-（2）单个共保人对保险责任范围内损失的赔偿，应根据并不超过其承保比例。
-本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
+          <t>兹经双方同意并约定，发生保险事故后，除非被保险人同意，否则应由受损保险标的之原有供应商确定是否维修或者重置，且维修或者重置应该选择该保险标的的原供应商,但保险人不承担维修或重置中新增性能而对应的各项费用。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -1238,36 +1070,31 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cost of Re-erection Clause</t>
+          <t>保单取消条款</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed and understood that this policy extends to include the cost of re-erecting, fitting and fixing machinery and plant in consequence of destruction or damage by any of the perils hereby insured against, provided that the total amount recoverable under any item of the policy shall not exceed the amount stated below during the period of insurance.
-Subject otherwise to the terms and conditions of the policy.</t>
-        </is>
-      </c>
+      <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加重新安装费用条款</t>
+          <t>企业财产保险附加提前通知注销保单条款（A款）</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112039523</t>
+          <t>C00001430622025112039243</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，本保险单扩展承保由于任何被保风险造成的损坏而导致的重新安装、安置机器设备的费用。但本保险单项下的总赔偿金额以保险金额为限。
-本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
+          <t>兹经双方同意，本保险单应投保人的书面通知，可随时终止，保费按短期费率或者最低保费收取。本保险单也可以在保险人提前在保险单中约定的天数下终止，保费按日费率计算。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -1289,25 +1116,33 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Cost of compiling records and claim preparation Clause (Limit: RMB1,000, 000 per valid claim)</t>
+          <t>保费支付条款</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Notwithstanding anything contained to the contrary contained in the within policy. It is herby declared that this policy extends to include the reasonable costs of materials and labour used or expended by the insured  with the company's consent in producing and certifying any records, information, evidence or such other proofs as may be required by the company under the terms and condition of this policy to substantiate any claim.
-The total liability of the company under this policy for both los</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>无匹配</t>
+      <c r="D11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加保费支付条款</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111826183</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，投保人于其或被保险人收到保险单的约定天数内支付预付保费（保险单收到日以快递签收日为准）。约定支付保费日期之前发生的保险事故，无论当时投保人支付保费与否，保险人都须承担赔偿责任。
+本保险所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr"/>
@@ -1327,40 +1162,40 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Designation of Property Clause</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>财物种别条款</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed and understood that for the purpose of determining where necessary the heading under which any property is insured the company agrees to accept the designation under which such property has been entered in the insured's books.
-Subject otherwise to the terms and conditions of the policy.</t>
-        </is>
-      </c>
+          <t>公共当局扩展条款</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加指明财产条款</t>
+          <t>企业财产保险附加公共当局扩展条款（A款）</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112040093</t>
+          <t>C00001430622025112455873</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，为了确定哪些财产在承保范围内，保险人认定被保险人账册上的财产已被承保。
-本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5" t="inlineStr">
+          <t>企业财产保险通用附加险条款适用于各类企业财产保险。
+兹经双方同意，本保险单扩展承保被保险人在重置损毁的保险财产时，由于必须执行公共当局的法律、法令、法规或条例，遵守建筑或其他有关规定而产生的额外费用，但不包括：
+（1）在下列情况下，执行上述规定或条例而产生的费用：
+= 1 \* GB3 ① 损失发生在本扩展生效之前；
+② 损失不在本保险责任范围内；
+③ 损失发生前，被保险人已接到有关通知；
+④未受损财产或未受损部分财产，但不包括受损财产的地基；
+（2）如果无需执行上述规定或条例，恢复受损财产以达到其新的状态应产生的额外费用；
+（3）执行上述规定或条例导致资产增值而产生的税费或评估费用。
+本保险单保险财产的总赔偿金额不得超过保险单明细表对应项目的保险金额。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -1382,35 +1217,38 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>90 Days Notice Of Cancellation By Insurer</t>
+          <t>其他物品条款（限额：每次事故RMB500,000.00）</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The company shall at any time by giving ninety (90) days' notice to the Insured by registered letter at the Insured's address as last known to the company, be at liberty to determine and cancel this policy, provided that the company shall in that event on demand return to the Insured a proportionate part of the premium corresponding to the unexpired period of insurance. This policy may be canceled by immediate notice of cancellation by insured. And in such event the Insured shall be entitled to </t>
-        </is>
-      </c>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加注销约定条款</t>
+          <t>企业财产保险附加所有其他物品条款</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025111825443</t>
+          <t>C00001430622025112041833</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，被保险人可以随时以书面的形式通知保险人解除保险合同，而保险人要求解除保险合同则必须提前90天通知被保险人。被保险人或保险人解除保险合同的，对保险单已生效期间的保险费，应按日比例计算。
+          <t>兹经双方同意并约定，“所有其他物品”应包括：
+1. 没有特别承保的现金和邮票；
+2. 文件、手稿和商用书籍，但其价值仅限于作为文具材料，以及用以完成它们所需的人工费，但不包括其中所含的信息的价值；
+3. 电脑系统资料，但仅限于其硬件材料的价值及为恢复原有数据而需花费的人工及电脑费用（但不包括任何有关获得、制作这些信息的费用及其中所含的信息对被保险人的价值）；
+4.模具、模板、设计图纸；
+5.雇员的衣物、工具和其他个人用品（助动车、自行车、手提电脑和移动电话等除外）。
+但每个雇员每人每次/累计赔偿限额由双方约定并在保险单中载明， 本保单累计赔偿限额由双方约定并在保险单中载明。
+本附加险根据保险单的约定收取保险费。
 本保险单所载其他条件不变。</t>
         </is>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="inlineStr">
+      <c r="H13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -1432,43 +1270,37 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Extra Charges Clause (Limit: 25% of loss)</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>特别费用扩展条款</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>It is agreed and understood that subject to the Insured having paid or agreed to pay the required additional premium, this insurance shall be extended to cover extra premium, this insurance shall be extended to cover extra charges to overtime, night work, work on public holidays and express freight (without airfreight).
-Provided always that such extra charges shall be incurred in connection with any loss of or damage to the insured items recoverable under the Policy.
-If the sum(s) insured of the</t>
-        </is>
-      </c>
+          <t>冷冻、冷藏物品变质条款（限额：RMB2,000,000.00每次及累计）</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加额外费用条款</t>
+          <t>企业财产保险附加冷冻、冷藏物品变质条款</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112038893</t>
+          <t>C00001430622025112152283</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，本保险单扩展承保下列附加费用：
-迁入或迁出临时处所的费用和临时处所的租金在内的附加费用。取得临时处所必要的赔偿或保费、附加费用和税款，以及为安装和/或租用家具、设备和办公用具等支付的费用；照明、取暖和用水的附加费用；电话、文具、广告、打印和差旅费用等额外开支；附加员工费用、加班费以及现有员工的餐费补贴；由于灭失、损害或毁损引起的重新获取财产的附加费用。为降低前述赔偿期营业中断或受到干扰的损失，恢复一切合同、文件、蓝图、图纸、规格说明、估价、卡片索引和账册等所有必要信息而发生的合理费用。
-赔偿期：自发生损失之日起，至此后不迟于十二个月为止且由于发生损失而营业受到影响的一段时间。
+          <t>兹经双方同意，本保险单扩展承保存放在保险处所冷藏库中的物品由于下列原因导致变质或腐烂而造成的损失:
+1）由于上述器具的内在原因造成损坏、停止或不能运作引致温度上升或下降而造成的损失;
+2）由于冷冻气体从上述器具中溢出而造成的损失:
+3）由于公共事业当局的非故意行为或非抑制或管制供应的行为导致不能供电、供气，而造成的损失；
+4）在保险期内发生其他任何不属于本保险单注明的除外责任的外来原因所造成的损失。
+保险人的责任不得超过明细表中列明的存货的保险金额。
+对任何三年以上的冷藏柜，被保险人必须保证由认可的冷冻工程师/公司进行维修。
 本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
         </is>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="inlineStr">
+      <c r="H14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -1490,44 +1322,34 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Escalation (Limit: 10% of Sum Insured)</t>
+          <t>加快费用条款（限额：理算金额的15%）</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It is hereby noted that the sum insured by each item shall during the Period of Insurance be increased each day by an amount representing 1/365th of the specified percentage (10%) increase per annum
-Unless specifically agreed to the contrary the provisions of this clause shall only apply to the sum insured in force at the commencement of Period of Insurance
-At each renewal date the Insured shall notify the Company
-The sum to be insured under each item but in the absence of such instructions the </t>
-        </is>
-      </c>
+      <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加自动升值条款</t>
+          <t>企业财产保险附加特别费用扩展条款</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112041813</t>
+          <t>C00001430622025112040023</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，保险人同意本保险单明细表所列各项目的保险金额应在本保险期限内，按已过期限与总保险期限的比值乘以双方约定并在保险单中载明的比例来增加。
-除非保险单另有规定，本条款只对保险单生效之日的保险金额有效。
-被保险人在每次续保日期，均应通知保险人下述情况:
-l）每次续保开始时需要保险的金额；
-2）续保期内需要增加的百分率；
-如不按上述执行，本条款规定停止适用。在这种情况下，上述项目在续保期的保险金额将转为明细表中各项目的保险金额。
-本附加险根据保险单的约定收取保险费。
-本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="inlineStr">
+          <t>兹经双方同意并约定，如果被保险财产发生本保险单承保范围内的损失，则本保险单扩展承保：
+a）零部件的快递费用或特快专递费用；
+b）经同意进行的修理所必要的劳工加班费用包括星期日、节假日、夜晚加班。
+赔偿限额由保险双方约定并在保险单中载明。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -1549,113 +1371,45 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Fire Extinguishing Expenses Clause (Limit: 15% of total sum insured)</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>灭火费用条款</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed that this insurance is extended to cover:
-1) Wages of the Insured’s employees engaged in fire fighting activities other than full time members of a Works Fire Brigade.
-2) The cost of replenishment of Fire Fighting Appliances and destruction of or damage to materials (including employees’ clothing and personal effects) and the cost of replacing or repairing materials or equipment used in extinguishing a fire unless otherwise specifically insured.
-3) All other costs and charges</t>
-        </is>
-      </c>
+          <t>变更和维修条款（合同限额：RMB5,000,000.00）</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加灭火费用条款（F款） (Limit: 15% of total sum insured)</t>
+          <t>企业财产保险附加装修、改造条款</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112039983</t>
+          <t>C00001430622025112454383</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，本保险扩展承保：
-1. 参加救火的被保险人雇员，但不包括工厂消防队专职队员的工资。
-2. 除非另有其他保险，补充消防器具及损毁材料（包括雇员的衣服及私人物品）的费用，以及重置或修理救火过程中使用的材料或设备的费用。
-3. 所有其他有关救火或防止火势蔓延，或因火或其他承保风险受损或存在受损的威胁，而提供临时安全装置的费用。
-但是，保险人对于上述工资及费用的责任限于，扑灭发生在本保险单项下保险财产所在地或其附近的，或即将危及保险财产的火灾过程中，必要和合理的支出。
-每次事故赔偿限额由保险双方约定并在保险单中载明。
-本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>0.403</v>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>模糊匹配</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>企业财产保险（集成电路行业专属2025版）附加灭火费用条款 (Limit: 15% of total sum insured)</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>C00001430622025112466123</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>兹经双方同意并约定，本附加险扩展承保：
-1. 参加救火的被保险人雇员，但不包括工厂消防队专职队员的工资。
-2. 除非另有其他保险，补充消防器具及损毁材料（包括雇员的衣服及私人物品）的费用，以及重置或修理救火过程中使用的材料或设备的费用。
-3. 所有其他有关救火或防止火势蔓延，或因火或其他承保风险受损或存在受损的威胁，而提供临时安全装置的费用。
-但是，保险人对于上述工资及费用的责任限于，扑灭发生在本保险单项下保险财产所在地或其附近的，或即将危及保险财产的火灾过程中，必要和合理的支出。
-每次事故赔偿限额由双方约定并在保险单中载明。
+          <t>兹经双方同意，本保险扩展承保保险财产在进行扩建、改建、维修、装修过程中发生的本保险责任范围内的物质损失，但被保险人克尽职责防止损失发生。本扩展条款项下总合同价不得超过保单约定金额。
 本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
         </is>
       </c>
-      <c r="M16" s="4" t="n">
-        <v>0.403</v>
-      </c>
-      <c r="N16" s="3" t="inlineStr">
-        <is>
-          <t>模糊匹配</t>
-        </is>
-      </c>
-      <c r="O16" s="3" t="inlineStr">
-        <is>
-          <t>企业财产保险附加灭火费用条款（D款） (Limit: 15% of total sum insured)</t>
-        </is>
-      </c>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t>C00001430622025111934573</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>兹经双方同意,本保单扩展承保由保单承保的风险引起的下列损失：
-一、灭火过程中的费用，包括但不限于：
-1.为参加救火的被保险人雇员所支付的费用，但不包括工厂消防队专职队员的工资；
-2.除非另有其他保险，补充消防器具及损毁材料（包括雇员的衣服及私人物品）的费用，以及重置或修理救火过程中使用的材料或设备的费用；
-3.所有其他有关救火或防止火势蔓延、因火或其他承保风险受损或存在受损威胁，而提供临时安全装置的费用。
-二、清理水和其他物质的费用；
-三、清理费用；
-四、暂时性防护设施建造费用。
-上述灭火费用不应计入本保单项下财产重置价值内，且灭火费用在保单明细表列明的总保险金额以外，根据单独载明的灭火费用每次事故赔偿限额进行赔付。
-本附加险根据保险单的约定收取保险费。
-本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="R16" s="4" t="n">
-        <v>0.403</v>
-      </c>
-      <c r="S16" s="3" t="inlineStr">
-        <is>
-          <t>模糊匹配</t>
-        </is>
-      </c>
+      <c r="H16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr"/>
+      <c r="K16" s="3" t="inlineStr"/>
+      <c r="L16" s="3" t="inlineStr"/>
+      <c r="M16" s="3" t="inlineStr"/>
+      <c r="N16" s="3" t="inlineStr"/>
+      <c r="O16" s="3" t="inlineStr"/>
+      <c r="P16" s="3" t="inlineStr"/>
+      <c r="Q16" s="3" t="inlineStr"/>
+      <c r="R16" s="3" t="inlineStr"/>
+      <c r="S16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -1663,36 +1417,26 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Errors &amp; Omissions Clause</t>
+          <t>合同争议解决</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed and understood that the liability under this policy shall not be prejudiced by any unintentional delay, error or omission in reporting new locations acquired or occupied or in reporting values of property or in description of any other information provided that such delay, error or omission shall be reported to the Company as soon as practicable after knowledge thereof, and the Insured shall pay an appropriate additional premium upon request by the company, from the date of a</t>
-        </is>
-      </c>
+      <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加错误和遗漏条款</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>C00001430622025111825983</t>
-        </is>
-      </c>
+          <t>主条款已有相关约定</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，本保险项下的赔偿责任不因被保险人非故意地延迟、错误或遗漏向保险人申报有关新取得的或所占用的场地、保险财产价值的变更或其他有关信息而被拒付，一旦被保险人发现其疏忽或遗漏应在合理的时间内尽快向保险人申报，并根据保险人要求支付自风险增加之日起的适当的附加保险费。
-不正确的、有缺陷的或错误的评估不可视为非故意的错误与遗漏。
-本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="inlineStr">
+          <t>主条款已有相关约定：因履行本合同发生的争议，由当事人协商解决，协商不成的，依法向保险标的所在地法院起诉。</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -1714,39 +1458,31 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Loss Notification Clause</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>损失通知条款</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>Notwithstanding anything contained herein to the contrary, it is hereby declared and agreed that this insurance will not be prejudiced by any inadvertent delays, errors, or omission in notifying the insurers of any circumstances or event giving rise or likely to give rise to a claim inside this Policy. Subject otherwise to the Terms, Exceptions and Conditions of this Policy.</t>
-        </is>
-      </c>
+          <t>合同价格扩展条款</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+      <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加损失通知条款</t>
+          <t>企业财产保险附加合同价格条款</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025111825493</t>
+          <t>C00001430622025112038823</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，本保单若有其他内容与本条款不符，以本条款为准。在通知保险人发生或可能发生保险事故时，被保险人的权利不得因其非有意的延迟、错误、疏漏而受到损害。
-本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5" t="inlineStr">
+          <t>兹经双方同意，如果因被保险财产在已经销售但尚未交付或未运抵购买方之前发生保险事故遭受损失，导致销售合同取消，保险赔款应按销售合同价格计算理赔。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -1768,26 +1504,33 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Misdescription Clause</t>
+          <t>品牌和商标标识条款</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed and understood that this insurance shall not be prejudiced by any alteration or misdescription of occupancy of the properties insured provided the insured shall notify the
-company as soon as he becomes aware of the same and shall pay additional premium if required from the date of the inception of the increased hazard arising from the alteration or misdescription of the occupancy.
-Subject otherwise to the terms exceptions and conditions of this policy.</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>无匹配</t>
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加商标及标签条款</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112040103</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，如果本保险单承保的贴有商标或标签的商品受损，并且保险人选择以协商价或估价全部或部分接收上述商品，被保险人在不造成商品物质损失的前提下，可以自付费用在商品或其容器上加盖“残缺”字样，或除去商标或标签，但在此种情况下，被保险人应按照法律的要求重新在商品或容器上粘贴标签。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr"/>
@@ -1807,39 +1550,48 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Non-invalidation Clause</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>不使失效条款</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed and understood that this insurance shall not be invalidated by any change of occupancy or increase of risk taking place in the property insured without the Insured's knowledge provided that they shall, immediately on the same coming to their knowledge, advise the company and pay any additional premium that may be required from the date of such increase of risk. Subject otherwise to the terms exceptions and conditions of this policy.</t>
-        </is>
-      </c>
+          <t>地震扩展条款（每次事故免赔额RMB400,000.00或损失金额的5%，两者以高者为准）</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+      <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加不予失效条款</t>
+          <t>企业财产保险附加地震海啸扩展条款</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112040033</t>
+          <t>C00001430622025112038173</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，本保险不因下述原因而失效：在被保险人不知情的情况下，承保财产占用性质改变或风险程度增加。但是一旦知道该情况，被保险人应立即通知保险人并缴付从风险增加之日起的额外保费。
-本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5" t="inlineStr">
+          <t>兹经双方同意，保险人按照以下约定扩展承保地震责任：
+（一）责任范围
+本条款承保由于破坏性地震或地震引起的海啸造成的保险标的的直接物质损坏或灭失。
+本条款中的地震是指因地壳发生急剧的自然变异，致使地面或海底发生震动的现象。破坏性地震指震级在M5级以上且烈度在VI度以上的地震。
+（二）除外责任
+本条款对以下原因造成的损失不予负责：
+（1）地震引起的任何后果损失或间接损失；
+（2）本条款列明的每次事故免赔额。
+（三）保险期限及责任起止日期
+本条款的保险期限与主保险单保险期限一致。
+（四）赔偿处理
+保险标的发生保险责任范围内的损失，保险人按照保险金额与保险价值的比例承担赔偿责任，按以下方式计算赔偿金额：
+（1）全部损失
+保险金额等于或高于保险价值时，其赔偿金额以不超过保险价值为限；保险金额低于保险价值时，按保险金额赔偿。
+（2）部分损失
+保险金额等于或高于保险价值时，其赔偿金额按实际损失计算；保险金额低于保险价值时，其赔偿金额按保险金额与保险价值比例计算。
+（3）若本保险单所载财产不止一项时，应分项按照本条款规定处理。
+（五）被保险人义务
+被保险人具有如实告知保险人保险标的的防震设计情况和使用</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -1861,39 +1613,31 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>No Control Clause</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>不受控制条款</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed and understood that this insurance shall not be prejudiced by failure of the insured to comply with any warranty or condition contained in any form or endorsement attached to this policy with regard to any portion of the premises over which the insured has no control. Subject otherwise to the terms exceptions and conditions of this policy.</t>
-        </is>
-      </c>
+          <t>增加资产条款(限额：保额的15%)</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加不可控制条款</t>
+          <t>企业财产保险附加增加资产条款（B款）</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112040053</t>
+          <t>C00001430622025112040573</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，本保险不因被保险人在其无法控制的任何场所无法履行保险单或批单中规定的任何保证或条件而受影响。
-本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
+          <t>兹经双方同意并约定，本保险单扩展承保本保险生效后被保险人在中华人民共和国境内所增加的财产，但不包括财产的自动升值，增加资产的金额以不超过相关项下类似财产保额的一定比例（由保险双方约定并在保险单中载明）为限。被保险人须每个季度申报增加资产的价值，并按日比例交付自新增部分开始日起的附加保险费。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -1915,35 +1659,36 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Pairs &amp; Set Clause</t>
+          <t>仓储财产申报条款（最低保费：预付保费的50% ）</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>Where any insured item consists of articles in a pair or set, the Company‘s liability shall not exceed the value of any particular part or parts which may be lost or damaged, without reference to any special value which such articles may have as part of such pair or set, nor more than a proportionate part of the sum Insured hereby on such pair or set.</t>
-        </is>
-      </c>
+      <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加成对成套条款</t>
+          <t>企业财产保险附加仓储财产申报条款</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112039833</t>
+          <t>C00001430622025112040133</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，在成对或成套的保险财产受损时，保险人的赔付金额不超过受损部件的价值，也不超过该受损部件在整套财产保额中的合理比例，而不考虑该受损部件对整套财产的特殊价值。
-本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
-        </is>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5" t="inlineStr">
+          <t>兹经双方同意，被保险人已支付的本保险单明细表中列明的仓储财产的保险费为预付保险费，保险人将根据本条款有关规定进行调整。
+1.被保险人应在每月结束后十天内向保险人申报该月最后一天的库存价值，若被保险人没有按期申报，本保险单明细表中列明的保险金额将被视作仓储财产的申报金额。
+2.发生损失时，若被保险仓储财产的库存价值超过保险金额，保险人将按下列方式计算赔偿金额：
+保险金额／实际仓储财产价值×损失金额－免赔额 = 赔偿金额
+3.本保险项下的预付保险费在本保险单生效时按保险金额的约定比例计收，本保险单终止时，保险费将根据申报库存价值的平均数作调整，多退少补，但退还的保险费不得超过保险双方约定的预付保险费的比例。
+4.发生损失后，保险金额将自动恢复，但被保险人应按日比例支付损失发生之日起至保险终止时的附加保险费。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -1965,39 +1710,31 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Payment on Account</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>预付赔款条款</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>The Company shall make 100% advance payment in respect of the loss amount which can be determined by supporting documents submitted by the Insured if the total settlement amount cannot be determined within 30 days of receipt of these documents.  For the rest of loss amount which cannot be determined, the Company agrees to make 50% advance payment on account upon request of the Insured.</t>
-        </is>
-      </c>
+          <t>建筑物外部附属设施扩展条款</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+      <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加预付赔款条款（A款）</t>
+          <t>企业财产保险附加建筑物外部附属设施扩展条款（A款）</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025111933123</t>
+          <t>C00001430622025112454293</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，如保险财产遭受保险单项下承保责任的损失，应被保险人的要求和理算师的建议，保险人同意按照保单中约定的初步估损金额的比例先行预付赔款。该预付赔款将在最终的赔款中全额扣除。如最终赔款金额少于预付赔款，被保险人应当退还赔款差额。
-本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5" t="inlineStr">
+          <t>兹经双方同意，本保险单扩展承保因发生保险责任范围内的事故，而造成被保险人加装于建筑物上的广告、天线、霓红灯、太阳能装置的损失。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -2019,35 +1756,32 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Premium Payment Clause</t>
+          <t>承保全部盗窃条款（限额：总保险金额的10%）</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>Notwithstanding anything contained herein to the contrary, the Company agrees that the Insured will be covered from policy inception date stipulated in policy schedule.  In the event of any claim caused by insured risk which occurred before premium payment, the Company confirms that the Insured’s right of recovery will not be prejudiced and the Company shall indemnify the Insured after receiving the premium.</t>
-        </is>
-      </c>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加保费支付条款</t>
+          <t>企业财产保险附加承保全部盗窃条款</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025111826183</t>
+          <t>C00001430622025112041103</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，投保人于其或被保险人收到保险单的约定天数内支付预付保费（保险单收到日以快递签收日为准）。约定支付保费日期之前发生的保险事故，无论当时投保人支付保费与否，保险人都须承担赔偿责任。
-本保险所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5" t="inlineStr">
+          <t>企业财产保险通用附加险条款适用于各类企业财产保险。
+兹经双方同意，本保险单同意扩展承保被保险人因营业场所内的财产或其任何部分由于非暴力进出场所的偷盗而失窃或受损而遭受的损失。但每次事故赔偿限额以保险双方约定并在保险单中载明的金额为限，累计赔偿限额以保险双方约定并在保险单中载明的金额为限。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -2069,25 +1803,33 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Public Utility Extension</t>
+          <t>指定公估人条款（名单可根据被保险人的要求变更）</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby declared and agreed that this policy shall not cover loss of or damage to the insured property caused by failure of public utilities, such as: electricity, gas or water supply or other energy sources except failure caused by NATURAL HAZARDS or ACCIDENT.
-This Clause is subject otherwise to all the terms and conditions of this Policy.</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr"/>
-      <c r="F25" s="3" t="inlineStr"/>
-      <c r="G25" s="3" t="inlineStr"/>
-      <c r="H25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="inlineStr">
-        <is>
-          <t>无匹配</t>
+      <c r="D25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加指定公估人条款（B款）</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111826173</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>经双方同意，当发生保险责任范围内的损失，估损金额超过保单双方约定金额或双方有争议时，可以指定双方认可的有合法执业资格的机构作为公估人，公估费用由保险人承担。
+本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
+        </is>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr"/>
@@ -2107,54 +1849,77 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Professional Fees Clause (Limit: 10% of sum insured)</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>专业费用扩展条款</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>It is agreed and understood that Company shall indemnify the Insured for the architects', surveyors' consulting engineers' fees necessarily incurred by the Insured in the reinstatement of the property insured consequent upon its destruction or damage by peril hereby insured against but not any fees for the preparation of a claim or estimate of loss, it being understood that the amount payable for such fees shall not exceed the amount authorized under the scales of the related professional depart</t>
-        </is>
-      </c>
+          <t>McLarens Man Yee Insurance Adjusters Co., Ltd.深圳市万宜麦理伦保险公估有限公司</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加专业费用条款</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>C00001430622025112039993</t>
-        </is>
-      </c>
+          <t>中国太平洋财产保险股份有限公司企业财产保险附加海缆切断条款</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，保险人负责赔偿被保险人因保险人保险单项下承保风险造成保险财产损失后，在重置过程中发生的必要的设计师、检验师及工程咨询人费用，但不包括被保险人为了准备索赔或估损所发生的任何费用。上述赔偿费用应以财产损失时适用的有关行业管理部门的收费规定为准，但保险人在本扩展条款项下的赔偿责任不得超过以下列明的限额。
-赔偿限额由保险双方约定并在保险单中载明。
-本附加险根据保险单的约定收取保险费。本保险单所载其他条件均不变。</t>
-        </is>
-      </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>精确匹配</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr"/>
+          <t>兹经双方同意，在海缆敷设、维护保养过程中，因本保单承保的风险威胁到电缆敷设船舶上的人员和/或电缆敷设操作人员的安全，被保险人不得不切断电缆，由此产生的费用或损失由保险人承担。
+本附加险的赔偿限额由保险双方约定并在保险单中载明。
+本附加险根据保险单的约定收取保险费。本保险合同所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>中国太平洋财产保险股份有限公司企业财产保险附加等待费用条款</t>
+        </is>
+      </c>
       <c r="K26" s="3" t="inlineStr"/>
-      <c r="L26" s="3" t="inlineStr"/>
-      <c r="M26" s="3" t="inlineStr"/>
-      <c r="N26" s="3" t="inlineStr"/>
-      <c r="O26" s="3" t="inlineStr"/>
-      <c r="P26" s="3" t="inlineStr"/>
-      <c r="Q26" s="3" t="inlineStr"/>
-      <c r="R26" s="3" t="inlineStr"/>
-      <c r="S26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，本保单负责赔偿由于本保单下所承保的风险发生保险事故后，被保险人为了使有关参与修理工作的船舶、船只、设备避免恶劣天气，包括被命名的台风而发生的等待费用。
+本附加险的赔偿限额由保险双方约定并在保险单中载明。
+本附加险根据保险单的约定收取保险费。本保单所载其它条件不变。</t>
+        </is>
+      </c>
+      <c r="M26" s="4" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="N26" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
+      <c r="O26" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加公估人费用条款</t>
+        </is>
+      </c>
+      <c r="P26" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112041323</t>
+        </is>
+      </c>
+      <c r="Q26" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，对保险标的物因发生承保事故所致损失时，保险人有义务应被保险人的要求共同指定公估公司进行理算，所发生的费用由保险人负担。
+本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
+        </is>
+      </c>
+      <c r="R26" s="4" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="S26" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -2162,44 +1927,31 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Removal Of Debris (Limit: 10% of sum insured)</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>清理残骸费用扩展条款</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>It is agreed and understood that the company shall indemnify the Insured for costs and expenses incurred in:
-1.  removing debris;
-2.  dismantling and/or demolishing;
-3.  shoring up or propping of the portion or portions of the properties insured under this
-Policy destroyed or damaged by perils insured by this Company provided that the total amount recoverable shall not exceed 10% of sum Insured .
-This Clause is subject otherwise to the terms, conditions and exceptions of this Policy.</t>
-        </is>
-      </c>
+          <t>损失通知条款</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加清理残骸条款</t>
+          <t>企业财产保险附加损失通知条款</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112039653</t>
+          <t>C00001430622025111825493</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，保险人负责赔偿被保险人因本保险单项下承保的风险造成保险财产损失而发生的清除、拆除或支撑受损财产的费用，但是本扩展条款项下的全部赔偿金额不得超过保单列明的限额，赔偿限额以保单载明的金额为准。
-本保险单所载其他条件均不变。</t>
-        </is>
-      </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
+          <t>兹经双方同意，本保单若有其他内容与本条款不符，以本条款为准。在通知保险人发生或可能发生保险事故时，被保险人的权利不得因其非有意的延迟、错误、疏漏而受到损害。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -2221,25 +1973,33 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Replacement Value Clause</t>
+          <t>未列明地址条款（每次事故赔偿限额为总保险金额的10%）</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>Partial Loss: expenses necessarily incurred to the damaged machine to its former state of serviceability plus the cost of dismantling and re-erection incurred including freight, customs duties and dues without deduction for depreciation in respect of parts replaced, but the value of Any salvage shall be taken into account.
-Total loss/Constructive total loss: the agreed replacement value of the items, but the value of any salvage shall be taken into account.</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="3" t="inlineStr"/>
-      <c r="G28" s="3" t="inlineStr"/>
-      <c r="H28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3" t="inlineStr">
-        <is>
-          <t>无匹配</t>
+      <c r="D28" s="3" t="inlineStr"/>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加扩展承保中国境内未列明保险地点条款</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112455623</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，保险人同意扩展承保被保险人存放于中国境内未列明地址内的，为被保险人所有或须承担责任之财产，因发生保险事故而致损坏或灭失所形成的损失。但每一地点的赔偿金额将不超过保险单载明的双方约定的赔偿限额。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr"/>
@@ -2259,38 +2019,32 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Temporary Protection Clause (Limit : RMB5,000,000 per occurrence)</t>
+          <t>权益保障条款</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed and understood that this policy is extended to cover the cost of temporary protection up to a limit of RMB200, 000 in the period of insurance reasonably for the safety and protection of the premises pending repairs/replacement of damage.
-Subject otherwise to the terms exceptions and conditions of this policy.</t>
-        </is>
-      </c>
+      <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加临时保护费用条款</t>
+          <t>企业财产保险附加权益保障条款</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112039713</t>
+          <t>C00001430622025112040863</t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，本保险单扩展承保为保护待修复或置换的受损财产而发生的合理的保障场所安全的临时保护费用。
-本条款下的赔偿金额在保险期限内不超过保单载明的约定金额。
-本附加险根据保险单的约定收取保险费。
+          <t>兹经双方同意并约定，若保险单列有多个被保险人，其各自的保险单权益不因某一被保险人违反保险单约定而受损。
+保险人就违反保险单约定直接造成的损失有权拒绝承担保险责任，但不能因此而影响到其他被保险人的保障。
 本保险单所载其他条件不变。</t>
         </is>
       </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
+      <c r="H29" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -2312,40 +2066,31 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Temporary Removal Clause (Limit:10%of sum insured)</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>临时移动扩展条款</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Subject to the following provisions, the property insured by this Policy (other than stock in trade or merchandise if insured hereby) is covered whilst temporarily removed for cleaning, renovation, repair or other similar purposes elsewhere on the same or to any other premises and in transit thereto and thereon by road, rail or public ferry, all in .The amount recoverable under this extension in respect of each item of the Policy shall not exceed the amount which would have been recoverable had </t>
-        </is>
-      </c>
+          <t>清理残骸费用扩展条款（限额：理算金额的25%）</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加临时移动条款（C款）</t>
+          <t>企业财产保险附加清理残骸条款</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112455793</t>
+          <t>C00001430622025112039653</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险通用附加险条款适用于各类企业财产保险。
-经双方同意，本保险单扩展承保保险财产在被保险人营业/办公场所内、营业/办公场所之间的临时移动过程中，包括为移动目的置于停放在保险财产地址内的车辆中，或为清洁、维修、修理或其他类似目的在中华人民共和国境内由公路、铁路往返运输途中，因自然灾害或意外事故而遭受的直接物质损失。
-本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
+          <t>兹经双方同意，保险人负责赔偿被保险人因本保险单项下承保的风险造成保险财产损失而发生的清除、拆除或支撑受损财产的费用，但是本扩展条款项下的全部赔偿金额不得超过保单列明的限额，赔偿限额以保单载明的金额为准。
+本保险单所载其他条件均不变。</t>
+        </is>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -2367,35 +2112,39 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Tax Clause</t>
+          <t>盗窃、抢劫扩展条款</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>For the Property Loss within the scope of cover under this Policy which will require repair, replace or exchange of the property insured, if it requires to pay for the Customs Duties or any other Duties, this Insurer will be responsible for those Customs Duties and the Sum Insured is deemed to include Customs and other Duties, even if the original purchase or the import of the property has already abandon the Customs Duties or other expenses or the Customs are due after the effective of this pol</t>
-        </is>
-      </c>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加保险金额含税约定条款</t>
+          <t>企业财产保险附加盗窃、抢劫保险（2025版）条款</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112041463</t>
+          <t>C00001430622025112149443</t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，被保险人所申报的保险金额均已含税金，对于被保险人因保险标的遭受保险责任范围内的事故所造成的税金损失，保险人按照本保险的约定负责赔偿。
-本保险所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5" t="inlineStr">
+          <t>经双方同意，由于使用暴力手段进出保险标的座落地址或被电子监测系统记录的，并经公安部门证明确系盗窃或抢劫行为造成保险标的的损失，保险人按照本保险合同的约定负责赔偿。但下列损失，保险人不负责赔偿：
+被保险人雇员、家庭成员及寄宿人员直接或间接参与盗窃及内外串通、故意纵容他人盗窃或抢劫所致的损失；
+放置在室外的保险标的遭受的盗窃损失；
+保险标的座落地址发生火灾、爆炸时保险标的遭受的盗窃损失；
+无合格的防盗措施、无专人看管或无详细记录情况下发生的损失；
+营业或工作期间、进出库过程中发生的盗窃损失；
+盘点时发现的短缺。
+保险人履行赔偿义务后破案追回的保险标的，仍归被保险人，被保险人应将已获赔款退还保险人；对被追回保险标的的损失部分，保险人按照本保险合同的约定进行赔偿。
+本附加险根据保险单的约定收取保险费。
+本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
+        </is>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -2417,39 +2166,31 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Waiver of Subrogation Clause</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>放弃代位追偿扩展条款</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed and understood that the Insurer shall waive its right of subrogation against Subsidiary or Parent Company, who would in the event of a subrogation action being pursued submit a claim to and be indemnified by the Insurers provided that all Insurers of these policies will likewise waive their rights of subrogation against each party who would otherwise be indemnified hereunder, except such right of subrogation arising directly as a result of claims made in respect of any malici</t>
-        </is>
-      </c>
+          <t>税金约定条款（每次事故及累计赔偿限额：RMB5,000,000.00）</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加放弃代位求偿权条款（A款）</t>
+          <t>企业财产保险附加保险金额含税约定条款</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025111933273</t>
+          <t>C00001430622025112041463</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，保险人同意放弃由于支付本保险单项下的赔款而可能获得的，对被保险人的任何母公司或子公司的代位权，但须以被保险人的任何子公司、母公司所持有的保险单都有类似的放弃追偿为前提，且不包括由任何恶意的、犯罪的、欺诈的或不诚实的行为直接导致的索赔所引起的代位求偿权。
-本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="5" t="inlineStr">
+          <t>兹经双方同意并约定，被保险人所申报的保险金额均已含税金，对于被保险人因保险标的遭受保险责任范围内的事故所造成的税金损失，保险人按照本保险的约定负责赔偿。
+本保险所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -2471,39 +2212,37 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Conveyer Belts and Knives Extension Clause传送带,刀具扩展</t>
+          <t>罢工、暴动或民众骚乱条款</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>兹经双方同意，保险人负责赔偿因承保风险造成传送带、刀具本身的损坏或损失，但保险人在该条款项下承担的最高赔偿责任不得超过传送带、刀具的保险金额，且若保险财产的保险金额不足,本条款项下的赔偿金额按比例减少。本保险单所载其他条件不变。
-It is hereby agreed and understood that the Insurer shall pay for the damage to or loss of conveyer belts and knives caused by insured risks subject to the sum insured of convey belts and knives. In case of underinsurance regarding the sum insured of the insured property, the indemnity under this extension clause shall be prorated downwards accordingly.
-Subject otherwise to the term</t>
-        </is>
-      </c>
+      <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加传送带、刀具扩展条款（2025版）</t>
+          <t>企业财产保险附加战争、罢工、暴动及民众骚乱条款</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112463423</t>
+          <t>C00001430622025112041623</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意并约定，保险人负责赔偿因主险承保风险造成传送带、刀具本身的损坏或损失，但保险人在该条款项下承担的最高赔偿责任不得超过传送带、刀具的保险金额。
-本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H33" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I33" s="3" t="inlineStr">
-        <is>
-          <t>模糊匹配</t>
+          <t>兹经双方同意并约定，本保险扩展承保由于战争、罢工、暴动和民众骚乱及蓄意破坏等造成的保险财产的损失或损坏。另外，根据本保险的规定，保险人对以下原因直接引起的保险财产的物质损失负责赔偿：
+(1)任何人士参与的任何扰乱公共秩序的行为（无论这种破坏活动是否与罢工或关闭工厂有关）；
+(2)由任何合法当局对罢工、暴动和民众骚乱等进行镇压或试图镇压或减少其损失后果的行为；
+(3)任何罢工工人或不准进入工地的工人进一步罢工或违抗封闭工地的蓄意行为；及任何合法当局为阻止或试图阻止任何此等行为或减少其损失后果的行为。
+本附加险根据保险单的约定收取保险费。
+本保险所载其他条件均不变。</t>
+        </is>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr"/>
@@ -2523,39 +2262,37 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Sue &amp; Labor Clause</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>诉讼及劳务费用特别条款</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>In the event of fire or any peril insured against by this policy, it shall be lawful and necessary for the insured, his or their agents, servants and assigns, to sue, labor and travel for, in and about the defense, safeguard and recovery of the property insured hereunder and part thereof without prejudice to this insurance, nor shall the acts of the insured or the company in recovering, saving and preserving the property covered in case of loss be considered a waiver or an acceptance of abandonm</t>
-        </is>
-      </c>
+          <t>自动升值扩展条款（升值率：15%）</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加诉讼和劳动条款（A款）</t>
+          <t>企业财产保险附加自动升值条款</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025111825463</t>
+          <t>C00001430622025112041813</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，当发生火灾或其他被保风险时，被保险人、或其代理、雇员或受让人所作的诉讼、劳务、在护墙内或附近的巡行，安全保护且在不影响本保险的前提下，对前述保险财产或其任何部分的修复将是合法及必需的，并且在发生损失或损坏时，被保险人或保险人为修复、抢救、保存保险财产所采取的行为不得被视为放弃或接受委付。所发生的费用由被保险人和保险人按各自受益程度比例分摊。
+          <t>兹经双方同意并约定，保险人同意本保险单明细表所列各项目的保险金额应在本保险期限内，按已过期限与总保险期限的比值乘以双方约定并在保险单中载明的比例来增加。
+除非保险单另有规定，本条款只对保险单生效之日的保险金额有效。
+被保险人在每次续保日期，均应通知保险人下述情况:
+l）每次续保开始时需要保险的金额；
+2）续保期内需要增加的百分率；
+如不按上述执行，本条款规定停止适用。在这种情况下，上述项目在续保期的保险金额将转为明细表中各项目的保险金额。
+本附加险根据保险单的约定收取保险费。
 本保险单所载其他条件不变。</t>
         </is>
       </c>
-      <c r="H34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="5" t="inlineStr">
+      <c r="H34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -2577,35 +2314,32 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Strike, Riot &amp; Civil Commotion Clause</t>
+          <t>自动恢复保险金额条款</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>It is agreed and understood that subject to the Insured having paid the agreed additional premium, this policy shall be extended to cover loss of or damage to the insured property described in the schedule due to strike, riot and civil commotion including the loss or damage caused by the act of any striker whilst occurring in the premises showed in the schedule and the loss or damage caused by looting occurring at the time of strike, riot and civil commotion, excluding the loss or damage arising</t>
-        </is>
-      </c>
+      <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加罢工、暴动、民众骚乱条款</t>
+          <t>企业财产保险附加自动恢复保险金额条款</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025111826093</t>
+          <t>C00001430622025112455833</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，本保险扩展承保本保险单明细表中列明的保险财产在列明地点范围内由于罢工、暴乱或民众骚动造成的损失，包括在此期间罢工人员在本保险单列明地点范围内的行为造成的损失，以及在罢工、暴乱或民众骚动期间，因发生抢劫造成保险财产的损失。但本扩展条款对由于政府或公共当局的命令、没收、征用或拆毁造成的损失以及因罢工人员或任何人故意纵火造成的损失不负责赔偿。
-本保险单所载其他条件均不变。</t>
-        </is>
-      </c>
-      <c r="H35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5" t="inlineStr">
+          <t>企业财产保险通用附加险条款适用于各类企业财产保险。
+兹经双方同意，本保险单项下各项保险财产的保险金额不因损失而减少。如受损标的的赔偿金额超过保险单明细表对应项目保险金额的按保险单载明的比例时，应保险人要求，被保险人需补缴自损失发生之日起至保险期限终止之日止超出按保险单载明的比例部分的按日比例计算的附加保险费。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -2627,41 +2361,34 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Off Premises Property Clause</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>场所外财产条款</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>It is hereby agreed and understood that this policy is automatically extended to cover the damage to or loss of property insured caused by insured perils whilst being removed from the described premises for repair, alternation or servicing.
-Subject otherwise to the terms, conditions and exclusions of this Policy.</t>
-        </is>
-      </c>
+          <t>自动扩展承保新增资产、新增公司和新增地址条款（被保险人90天申报）</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加场所外财产条款N</t>
+          <t>企业财产保险附加自动承保新获取资产、新增地点条款</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112038953</t>
+          <t>C00001430622025121595093</t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，本保险单扩展承保为修理、检修或避免受到承保风险的威胁，而从保险财产地址移走的保险财产所遭受的直接物质损失，但自移动之日起不得超过保险单中约定的天数。
-本条款不适用于为加工而移动的保险财产，也不适用于另行投保的财产。
+          <t>兹经双方同意，本保险单扩展承保：
+1.属于被保险人、其子公司或合伙人的在任何新地点的财产和存货；
+2.对本保单列明地址及前述第1项地址范围内财产和存货的变更、增添和改进。
+本条款所述费用在本保险单明细表所列保险金额之外另行赔付；每次事故赔偿限额为本保险单总保险金额的约定比例；被保险人应在获知新增地点或财产和存货发生变更、增添或改进之日起60日内书面告知保险人。
 本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
         </is>
       </c>
-      <c r="H36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="5" t="inlineStr">
+      <c r="H36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -2683,45 +2410,31 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>场外维修及改造条款</t>
+          <t>被保险财产条款</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>在保险期间内，若被保财产需要在投保地点以外的场地进行维修和/或改造时，本保险单自动扩展承保位于维修或改造地点的这部分被保财产。
-本保险单所载其他条件不变。
-By China Pacific Insurance Company Limited
-Address： No 400, Wusong Road Shanghai Shanghai Branch
-Date of Issue： 2025-10-31
-Place of Issue： Shanghai
-Tel： 021-66779900 _____________________________
-Fax： 021-66085269 Authorized Signature
-The Insured The Insured {The Insured} {The Insured}
-&amp;/or Its Subsidiaries &amp;/or Affiliated Companies &amp;/or Associated Companies for their respective rights and interests
-Locations Locations</t>
-        </is>
-      </c>
+      <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>企业财产保险附加场外维修及改造条款</t>
+          <t>企业财产保险附加指明财产条款</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>C00001430622025112454303</t>
+          <t>C00001430622025112040093</t>
         </is>
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>兹经双方同意，在保险期内，若被保财产需要在投保地点以外的场地进行维修和/或改造时，本保险单自动扩展承保位于维修或改造地点的这部分被保财产。赔偿限额双方约定并在保单载明。
-本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
-        </is>
-      </c>
-      <c r="H37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5" t="inlineStr">
+          <t>兹经双方同意并约定，为了确定哪些财产在承保范围内，保险人认定被保险人账册上的财产已被承保。
+本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
+        </is>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6" t="inlineStr">
         <is>
           <t>精确匹配</t>
         </is>
@@ -2737,6 +2450,1832 @@
       <c r="R37" s="3" t="inlineStr"/>
       <c r="S37" s="3" t="inlineStr"/>
     </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>车辆装载物扩展条款</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="inlineStr"/>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加车辆装载物条款</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111825713</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，装载保险标的物之车辆或货柜暂时停置于保险单所载明处所内时，保险人对该保险标的物于保险期限内，因发生保险事故所致损坏或灭失，也负赔偿责任。
+本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
+        </is>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr"/>
+      <c r="L38" s="3" t="inlineStr"/>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr"/>
+      <c r="O38" s="3" t="inlineStr"/>
+      <c r="P38" s="3" t="inlineStr"/>
+      <c r="Q38" s="3" t="inlineStr"/>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="S38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>通译和标题条款</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="inlineStr"/>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加通译和标题条款</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112041003</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险通用附加险条款适用于各类企业财产保险。
+经保险双方约定，本保险单主要包含明细表、保险责任、除外责任、普通条款和特别约定条款以及此保险单包含的其他条款和以此为基础做出的批单条款，各部分内容均应作为整体理解。如果保险单某一部分有任何词汇或表达被赋予特定意义，则该词汇无论出现在保险单哪一部分均应表达该特定意义，除非该意义与上下文不符。
+如果保险单中使用了被保险人和保险人之外的词汇来代表本保险单的赔偿方和风险投保方，兹经双方同意，上述词汇的意义应当与被保险人和保险人相同。
+双方还同意：
+a.	具有人称含义的词语包含公司和其他法律实体；
+b.	单数词汇应视为同时包含复数形式，复数亦然；
+c.	具备词性的词汇在保险单中再次出现时词性一致。
+如果本保险单各条款、规定、条件之间有任何解释上的冲突，应当以最有利于被保险人的解释为准。如果本保险单任何条款被相关法律认定无效，不能执行，本保险单将视为无此条款，而保险单其他部分应当保持完全效力。
+标题仅为易于查阅用途。兹约定，相应的保险单条款不应仅仅按照其标题来解释。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="inlineStr"/>
+      <c r="K39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="3" t="inlineStr"/>
+      <c r="P39" s="3" t="inlineStr"/>
+      <c r="Q39" s="3" t="inlineStr"/>
+      <c r="R39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>重置价值条款（facility措辞）</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加重置价值条款N</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112455753</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，以下列特别条件为准，本保险单项下明细表中列明的财产（不包括仓储物品），如发生本保险责任范围内的损失，其赔偿金额应按受损保险财产的重置价值计算。
+重置价值是指：
+（1）重建或替换受损财产；
+但本保险的赔偿责任不能因下列原因而增加：
+①被保险人要求按自己的方式进行重建或替换受损财产；
+②被保险人在其他地点进行重建或替换受损财产。
+（2）修理或修复受损财产；
+无论属于哪一种情况，受损财产应达到等同或基本近似但不超出其崭新时的状态。
+特别条件：
+被保险财产若发生部分损失，需进行修理或修复的费用不能超过该财产全部损失应赔偿的金额。
+（3）若遇下列情况，保险人的赔偿最高将按受损保险财产的市价计算：
+①被保险人没有合理的原因和理由推迟、延误重建或修复工作；
+②被保险人没有对受损财产进行重建、替换或修复；
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr"/>
+      <c r="K40" s="3" t="inlineStr"/>
+      <c r="L40" s="3" t="inlineStr"/>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr"/>
+      <c r="O40" s="3" t="inlineStr"/>
+      <c r="P40" s="3" t="inlineStr"/>
+      <c r="Q40" s="3" t="inlineStr"/>
+      <c r="R40" s="3" t="inlineStr"/>
+      <c r="S40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>错误和遗漏条款</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr"/>
+      <c r="D41" s="3" t="inlineStr"/>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加错误和遗漏条款</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111825983</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，本保险项下的赔偿责任不因被保险人非故意地延迟、错误或遗漏向保险人申报有关新取得的或所占用的场地、保险财产价值的变更或其他有关信息而被拒付，一旦被保险人发现其疏忽或遗漏应在合理的时间内尽快向保险人申报，并根据保险人要求支付自风险增加之日起的适当的附加保险费。
+不正确的、有缺陷的或错误的评估不可视为非故意的错误与遗漏。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J41" s="3" t="inlineStr"/>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="inlineStr"/>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr"/>
+      <c r="O41" s="3" t="inlineStr"/>
+      <c r="P41" s="3" t="inlineStr"/>
+      <c r="Q41" s="3" t="inlineStr"/>
+      <c r="R41" s="3" t="inlineStr"/>
+      <c r="S41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>免现场查勘条款</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="inlineStr"/>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加免检条款</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111825703</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，第一部分项下的索赔如果预计金额不超过保险单上载明的人民币金额（已扣减应适用的免赔额），此索赔无需进行查勘即予认可，被保险人无需事先同保险人协商即可着手修复，但应向保险人递交一份附有支持文件的全面的书面事故报告，并保留所有损失照片。尽管有前述规定，保险人保留检查损失现场的权利。本保险单所载其他条件不变。
+本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
+        </is>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr"/>
+      <c r="K42" s="3" t="inlineStr"/>
+      <c r="L42" s="3" t="inlineStr"/>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr"/>
+      <c r="O42" s="3" t="inlineStr"/>
+      <c r="P42" s="3" t="inlineStr"/>
+      <c r="Q42" s="3" t="inlineStr"/>
+      <c r="R42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，责任免除第七条（七）修改为：“保险标的的内在或潜在缺陷、自然磨损、自然损耗、大气（气候或气温）变化、正常水位变化或其他渐变原因，物质本身变化、霉烂、受潮、鼠咬、虫蛀、鸟啄、氧化、锈蚀、渗漏、烘焙。但因此造成其他财产的损失不在此限。”</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="inlineStr"/>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加除外责任明晰条款</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111825953</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，保险人对下列各项直接损失不负责赔偿:
+（一）设计错误，原材料缺陷或工艺不善引起被保险财产本身的损失和费用;
+（二）自然磨损，内在或潜在缺陷，物质本身变化，自燃，自热，氧化，锈蚀，渗漏，鼠咬，虫蛀，大气（气候或气温）变化，正常水位变化或其他渐变原因造成的被保险财产本身的损失和费用;
+但因前二款原因引致其他保险标的之损失保险人负责赔偿。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr"/>
+      <c r="P43" s="3" t="inlineStr"/>
+      <c r="Q43" s="3" t="inlineStr"/>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>预付赔偿条款（定损金额的50%）</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+      <c r="D44" s="3" t="inlineStr"/>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加预付赔款条款（A款）</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111933123</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，如保险财产遭受保险单项下承保责任的损失，应被保险人的要求和理算师的建议，保险人同意按照保单中约定的初步估损金额的比例先行预付赔款。该预付赔款将在最终的赔款中全额扣除。如最终赔款金额少于预付赔款，被保险人应当退还赔款差额。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr"/>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr"/>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr"/>
+      <c r="Q44" s="3" t="inlineStr"/>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>露天存放及简易建筑内财产扩展条款（每次事故及累计限额500万人民币）</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+      <c r="D45" s="3" t="inlineStr"/>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加露天及简易建筑内存放财产扩展条款（B款）</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112041273</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>经双方同意，由于暴风、暴雨造成的存放于露天或简易建筑内的保险标的的损失，保险人按照本保险合同的约定负责赔偿。
+被保险人对露天及简易建筑内财产的存放，应符合仓储及有关部门的规定，并采取相应的安全防护措施。
+本附加险根据保险单的约定收取保险费。
+本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
+        </is>
+      </c>
+      <c r="H45" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J45" s="3" t="inlineStr"/>
+      <c r="K45" s="3" t="inlineStr"/>
+      <c r="L45" s="3" t="inlineStr"/>
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr"/>
+      <c r="O45" s="3" t="inlineStr"/>
+      <c r="P45" s="3" t="inlineStr"/>
+      <c r="Q45" s="3" t="inlineStr"/>
+      <c r="R45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>由于供应水、电、气及其他能源设备如供电厂、发电站、变电站、电压器和其它设备（包括传输线路）（无论这些设施设备是否座落于被保险场所内或是否属于被保险人）遭受保险事故致使供应发生故障或中断造成在产品损失，保险人按照本保险合同约定负责赔偿。公共设施当局或被保险人为防止或减少供应系统即将面临的意外中断或故障而有意行使权力停止或限制供应也属于本合同承保范围。</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+      <c r="D46" s="3" t="inlineStr"/>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加“三停”损失保险</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112040523</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，本保险条款扩展承保由于自然灾害或意外事故导致公共供电、供水、供气及被保险人自有财产所有权的自用的供水、供电、供气突然中断造成的保险标的的直接损失。
+每次事故赔偿限额由保险双方约定并在保险单中载明。
+本附加险根据保险单的约定收取保险费。保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr"/>
+      <c r="K46" s="3" t="inlineStr"/>
+      <c r="L46" s="3" t="inlineStr"/>
+      <c r="M46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="inlineStr"/>
+      <c r="O46" s="3" t="inlineStr"/>
+      <c r="P46" s="3" t="inlineStr"/>
+      <c r="Q46" s="3" t="inlineStr"/>
+      <c r="R46" s="3" t="inlineStr"/>
+      <c r="S46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>保单文本中列明的除外条款</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr"/>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加供应中断除外条款（A款）</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112039303</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，由于被保险人拥有财产所有权的自用的供电、供水、供气等能源供应中断造成保险标的的损失，保险人不负责赔偿。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H47" s="4" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I47" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险（集成电路行业专属2025版）附加供应中断除外条款</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112151133</t>
+        </is>
+      </c>
+      <c r="L47" s="3" t="inlineStr">
+        <is>
+          <t>经双方同意并约定，由于被保险人拥有财产所有权的自用的供电、供水、供气等能源供应中断造成保险标的的损失，保险人不负责赔偿。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="M47" s="4" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="N47" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
+      <c r="O47" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加扩展承保中国境内未列明保险地点条款</t>
+        </is>
+      </c>
+      <c r="P47" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112455623</t>
+        </is>
+      </c>
+      <c r="Q47" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，保险人同意扩展承保被保险人存放于中国境内未列明地址内的，为被保险人所有或须承担责任之财产，因发生保险事故而致损坏或灭失所形成的损失。但每一地点的赔偿金额将不超过保险单载明的双方约定的赔偿限额。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="R47" s="4" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="S47" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>2000年责任除外条款</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr"/>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加财产险2000年问题除外条款</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112038153</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，本条款“2000年问题”系指，因涉及2000年日期变更，或此前、期间、其后任何其他日期变更，包括闰年的计算，直接或间接引起计算机硬件设备、程序、软件、芯片、媒介物、集成电路及其他电子设备中的类似装置的故障，进而直接或间接引起和导致保险财产的损失或损坏问题。保险人对由于下列原因，无论计算机设备是否属于被保险人所有，直接或间接导致、构成或引起保险财产损失或损坏，由此产生的直接损失或间接损失不负赔偿责任：
+（一）不能正确识别日期；
+（二）由于不能正确识别日期，而导致无法读取、存储、保留、检索、操作、判别、处理任何数据或信息，或执行命令和指令；
+（三）在任何日期或该日期之后，由于编程输入任何计算机软件的操作命令引起的数据丢失，或不能读取、储存、保留、检索、操作、判别、处理该类数据；
+（四）因涉及2000年日期变更，或任何其他日期变更，包括闰年的计算，而不能进行计算、比较、识别、排序和数据处理；
+（五）因涉及2000年日期变更，或任何其他日期变更，包括闰年的计算，对包括计算机、硬件设备、程序、芯片、媒介物、集成电路及其他电子设备中的类似装置进行预防性的、治理性的、或其他性质的更换、</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险（集成电路行业专属2025版）附加财产险2000年问题除外条款</t>
+        </is>
+      </c>
+      <c r="K48" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112151183</t>
+        </is>
+      </c>
+      <c r="L48" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，本条款“2000年问题”系指，因涉及2000年日期变更，或此前、期间、其后任何其他日期变更，包括闰年的计算，直接或间接引起计算机硬件设备、程序、软件、芯片、媒介物、集成电路及其他电子设备中的类似装置的故障，进而直接或间接引起和导致保险财产的损失或损坏问题。保险人对由于下列原因，无论计算机设备是否属于被保险人所有，直接或间接导致、构成或引起保险财产损失或损坏，由此产生的直接损失或间接损失不负赔偿责任：
+（一）不能正确识别日期；
+（二）由于不能正确识别日期，而导致无法读取、存储、保留、检索、操作、判别、处理任何数据或信息，或执行命令和指令；
+（三）在任何日期或该日期之后，由于编程输入任何计算机软件的操作命令引起的数据丢失，或不能读取、储存、保留、检索、操作、判别、处理该类数据；
+（四）因涉及2000年日期变更，或任何其他日期变更，包括闰年的计算，而不能进行计算、比较、识别、排序和数据处理；
+（五）因涉及2000年日期变更，或任何其他日期变更，包括闰年的计算，对包括计算机、硬件设备、程序、芯片、媒介物、集成电路及其他电子设备中的类似装置进行预防性的、治理性的、或其他性质的</t>
+        </is>
+      </c>
+      <c r="M48" s="5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N48" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
+      <c r="O48" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加洪水除外条款（A款）</t>
+        </is>
+      </c>
+      <c r="P48" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112039233</t>
+        </is>
+      </c>
+      <c r="Q48" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，由于洪水造成保险标的的损失，保险人不负责赔偿。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="R48" s="5" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="S48" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>80%共保条款</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+      <c r="D49" s="3" t="inlineStr"/>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加80%共保条款（B款）</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112041493</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，如本保险合同其它内容与本条款不符，以本条款为准。如果出险时总保险金额低于被保险人实际拥有财产价值的80%，被保险人将被视为该差额部分的自保人而按比例承担损失；但是，如果保险金额不低于其财产价值的80%，则视同被保险人足额投保，被保险人将得到全部的赔偿而免受比例赔付的损失。此条款应与“自动升值”条款一并解读,即保险金额应为计算自动升值后的金额,以厘定被保险人应否承担比例赔付。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H49" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="inlineStr"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr"/>
+      <c r="Q49" s="3" t="inlineStr"/>
+      <c r="R49" s="3" t="inlineStr"/>
+      <c r="S49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>不受控制条款</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+      <c r="D50" s="3" t="inlineStr"/>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加不受控制条款（A款）</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111825473</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，被保险人在占用或使用营业场所时，由于不知情或远非其所能控制的事件发生造成的遗漏申报或任何行为，不会影响本保险单的有效性，一旦被保险人知道应立即通知保险人并按要求支付适当的附加保险费。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H50" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr"/>
+      <c r="K50" s="3" t="inlineStr"/>
+      <c r="L50" s="3" t="inlineStr"/>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
+      <c r="P50" s="3" t="inlineStr"/>
+      <c r="Q50" s="3" t="inlineStr"/>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>专业费用及索赔准备费用条款（每次事故赔偿限额为理算金额的25%）</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr"/>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加专业费用条款</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112039993</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，保险人负责赔偿被保险人因保险人保险单项下承保风险造成保险财产损失后，在重置过程中发生的必要的设计师、检验师及工程咨询人费用，但不包括被保险人为了准备索赔或估损所发生的任何费用。上述赔偿费用应以财产损失时适用的有关行业管理部门的收费规定为准，但保险人在本扩展条款项下的赔偿责任不得超过以下列明的限额。
+赔偿限额由保险双方约定并在保险单中载明。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件均不变。</t>
+        </is>
+      </c>
+      <c r="H51" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J51" s="3" t="inlineStr"/>
+      <c r="K51" s="3" t="inlineStr"/>
+      <c r="L51" s="3" t="inlineStr"/>
+      <c r="M51" s="3" t="inlineStr"/>
+      <c r="N51" s="3" t="inlineStr"/>
+      <c r="O51" s="3" t="inlineStr"/>
+      <c r="P51" s="3" t="inlineStr"/>
+      <c r="Q51" s="3" t="inlineStr"/>
+      <c r="R51" s="3" t="inlineStr"/>
+      <c r="S51" s="3" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>产权保护条款</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr"/>
+      <c r="D52" s="3" t="inlineStr"/>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加知识产权保护条款</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112041473</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，被保险人拥有唯一所有权的保险财产，在受到损失的情况下，被保险人对其拥有完全的所有权，并保留全部受损保险财产或其部件、组件或其他相关设备的控制及所有权。
+被保险人拥有或者/及其他由被保险人负责管理的受损财产，未经被保险人事先同意，不得做出售处理。如果做出售处理，而被保险人认为应在出售前去除该受损财产的品牌和商标，则相关去除费用由保险人承担。
+被保险人也可以选择在监督下销毁受损财产，则该受损财产应视为没有残值和遭受全损。
+本保险所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="inlineStr"/>
+      <c r="K52" s="3" t="inlineStr"/>
+      <c r="L52" s="3" t="inlineStr"/>
+      <c r="M52" s="3" t="inlineStr"/>
+      <c r="N52" s="3" t="inlineStr"/>
+      <c r="O52" s="3" t="inlineStr"/>
+      <c r="P52" s="3" t="inlineStr"/>
+      <c r="Q52" s="3" t="inlineStr"/>
+      <c r="R52" s="3" t="inlineStr"/>
+      <c r="S52" s="3" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>优先使用原供应商条款</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr"/>
+      <c r="D53" s="3" t="inlineStr"/>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加优先使用原供应商条款（2025版）</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112465953</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，发生保险事故后，除非被保险人同意，否则应由受损保险标的之原有供应商确定是否维修或者重置，且维修或者重置应该选择该保险标的的原供应商,但保险人不承担维修或重置中新增性能而对应的各项费用。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H53" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J53" s="3" t="inlineStr"/>
+      <c r="K53" s="3" t="inlineStr"/>
+      <c r="L53" s="3" t="inlineStr"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="inlineStr"/>
+      <c r="P53" s="3" t="inlineStr"/>
+      <c r="Q53" s="3" t="inlineStr"/>
+      <c r="R53" s="3" t="inlineStr"/>
+      <c r="S53" s="3" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>传送带、链条扩展条款</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr"/>
+      <c r="D54" s="3" t="inlineStr"/>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加传送带、链条扩展条款</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112041053</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险通用附加险条款适用于各类企业财产保险。
+兹经双方同意，尽管本保险单有相反规定，保险人负责赔偿因承保风险造成传送带、链条本身的损坏或损失。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr"/>
+      <c r="K54" s="3" t="inlineStr"/>
+      <c r="L54" s="3" t="inlineStr"/>
+      <c r="M54" s="3" t="inlineStr"/>
+      <c r="N54" s="3" t="inlineStr"/>
+      <c r="O54" s="3" t="inlineStr"/>
+      <c r="P54" s="3" t="inlineStr"/>
+      <c r="Q54" s="3" t="inlineStr"/>
+      <c r="R54" s="3" t="inlineStr"/>
+      <c r="S54" s="3" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>保单取消条款</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr"/>
+      <c r="D55" s="3" t="inlineStr"/>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加提前通知注销保单条款（A款）</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112039243</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，本保险单应投保人的书面通知，可随时终止，保费按短期费率或者最低保费收取。本保险单也可以在保险人提前在保险单中约定的天数下终止，保费按日费率计算。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H55" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J55" s="3" t="inlineStr"/>
+      <c r="K55" s="3" t="inlineStr"/>
+      <c r="L55" s="3" t="inlineStr"/>
+      <c r="M55" s="3" t="inlineStr"/>
+      <c r="N55" s="3" t="inlineStr"/>
+      <c r="O55" s="3" t="inlineStr"/>
+      <c r="P55" s="3" t="inlineStr"/>
+      <c r="Q55" s="3" t="inlineStr"/>
+      <c r="R55" s="3" t="inlineStr"/>
+      <c r="S55" s="3" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>保费支付条款</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr"/>
+      <c r="D56" s="3" t="inlineStr"/>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加保费支付条款</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111826183</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，投保人于其或被保险人收到保险单的约定天数内支付预付保费（保险单收到日以快递签收日为准）。约定支付保费日期之前发生的保险事故，无论当时投保人支付保费与否，保险人都须承担赔偿责任。
+本保险所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J56" s="3" t="inlineStr"/>
+      <c r="K56" s="3" t="inlineStr"/>
+      <c r="L56" s="3" t="inlineStr"/>
+      <c r="M56" s="3" t="inlineStr"/>
+      <c r="N56" s="3" t="inlineStr"/>
+      <c r="O56" s="3" t="inlineStr"/>
+      <c r="P56" s="3" t="inlineStr"/>
+      <c r="Q56" s="3" t="inlineStr"/>
+      <c r="R56" s="3" t="inlineStr"/>
+      <c r="S56" s="3" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>制造商/供应商担保条款</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr"/>
+      <c r="D57" s="3" t="inlineStr"/>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加供应商和客户条款</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112038813</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，本保险单中被保险人之客户或供应商所拥有、使用或占用的地点，或是被保险人客户的附加供应商或被保险人任何配送中心或被保险人供应商之生产商所拥有的地点因发生本保险单项下的损害而直接或间接地造成被保险人营业中断或受影响而导致的损失，应视同为在被保险人营业场所内的财产受到损坏而导致的营业的损失。
+被保险人的关联公司（如不是本保险单的保险人之一）作为被保险人的客户或供应商的情况下,亦应视同为一般的客户或供应商处理，适用本条款的规定。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H57" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J57" s="3" t="inlineStr"/>
+      <c r="K57" s="3" t="inlineStr"/>
+      <c r="L57" s="3" t="inlineStr"/>
+      <c r="M57" s="3" t="inlineStr"/>
+      <c r="N57" s="3" t="inlineStr"/>
+      <c r="O57" s="3" t="inlineStr"/>
+      <c r="P57" s="3" t="inlineStr"/>
+      <c r="Q57" s="3" t="inlineStr"/>
+      <c r="R57" s="3" t="inlineStr"/>
+      <c r="S57" s="3" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>加快费用条款（每次事故赔偿限额:理算金额的20%）</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr"/>
+      <c r="D58" s="3" t="inlineStr"/>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加特别费用扩展条款</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112040023</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，如果被保险财产发生本保险单承保范围内的损失，则本保险单扩展承保：
+a）零部件的快递费用或特快专递费用；
+b）经同意进行的修理所必要的劳工加班费用包括星期日、节假日、夜晚加班。
+赔偿限额由保险双方约定并在保险单中载明。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H58" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr"/>
+      <c r="K58" s="3" t="inlineStr"/>
+      <c r="L58" s="3" t="inlineStr"/>
+      <c r="M58" s="3" t="inlineStr"/>
+      <c r="N58" s="3" t="inlineStr"/>
+      <c r="O58" s="3" t="inlineStr"/>
+      <c r="P58" s="3" t="inlineStr"/>
+      <c r="Q58" s="3" t="inlineStr"/>
+      <c r="R58" s="3" t="inlineStr"/>
+      <c r="S58" s="3" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>合同争议解决</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr"/>
+      <c r="D59" s="3" t="inlineStr"/>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>主条款已有相关约定</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr"/>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>主条款已有相关约定：因履行本合同发生的争议，由当事人协商解决，协商不成的，依法向保险标的所在地法院起诉。</t>
+        </is>
+      </c>
+      <c r="H59" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J59" s="3" t="inlineStr"/>
+      <c r="K59" s="3" t="inlineStr"/>
+      <c r="L59" s="3" t="inlineStr"/>
+      <c r="M59" s="3" t="inlineStr"/>
+      <c r="N59" s="3" t="inlineStr"/>
+      <c r="O59" s="3" t="inlineStr"/>
+      <c r="P59" s="3" t="inlineStr"/>
+      <c r="Q59" s="3" t="inlineStr"/>
+      <c r="R59" s="3" t="inlineStr"/>
+      <c r="S59" s="3" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>指定公估人条款（名单可根据被保险人的要求变更）</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr"/>
+      <c r="D60" s="3" t="inlineStr"/>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加指定公估人条款（B款）</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111826173</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>经双方同意，当发生保险责任范围内的损失，估损金额超过保单双方约定金额或双方有争议时，可以指定双方认可的有合法执业资格的机构作为公估人，公估费用由保险人承担。
+本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
+        </is>
+      </c>
+      <c r="H60" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="inlineStr"/>
+      <c r="K60" s="3" t="inlineStr"/>
+      <c r="L60" s="3" t="inlineStr"/>
+      <c r="M60" s="3" t="inlineStr"/>
+      <c r="N60" s="3" t="inlineStr"/>
+      <c r="O60" s="3" t="inlineStr"/>
+      <c r="P60" s="3" t="inlineStr"/>
+      <c r="Q60" s="3" t="inlineStr"/>
+      <c r="R60" s="3" t="inlineStr"/>
+      <c r="S60" s="3" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>McLarens Man Yee Insurance Adjusters Co., Ltd.深圳市万宜麦理伦保险公估有限公司</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr"/>
+      <c r="D61" s="3" t="inlineStr"/>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>中国太平洋财产保险股份有限公司企业财产保险附加海缆切断条款</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr"/>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，在海缆敷设、维护保养过程中，因本保单承保的风险威胁到电缆敷设船舶上的人员和/或电缆敷设操作人员的安全，被保险人不得不切断电缆，由此产生的费用或损失由保险人承担。
+本附加险的赔偿限额由保险双方约定并在保险单中载明。
+本附加险根据保险单的约定收取保险费。本保险合同所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H61" s="4" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="I61" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>中国太平洋财产保险股份有限公司企业财产保险附加等待费用条款</t>
+        </is>
+      </c>
+      <c r="K61" s="3" t="inlineStr"/>
+      <c r="L61" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，本保单负责赔偿由于本保单下所承保的风险发生保险事故后，被保险人为了使有关参与修理工作的船舶、船只、设备避免恶劣天气，包括被命名的台风而发生的等待费用。
+本附加险的赔偿限额由保险双方约定并在保险单中载明。
+本附加险根据保险单的约定收取保险费。本保单所载其它条件不变。</t>
+        </is>
+      </c>
+      <c r="M61" s="4" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="N61" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
+      <c r="O61" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加公估人费用条款</t>
+        </is>
+      </c>
+      <c r="P61" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112041323</t>
+        </is>
+      </c>
+      <c r="Q61" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，对保险标的物因发生承保事故所致损失时，保险人有义务应被保险人的要求共同指定公估公司进行理算，所发生的费用由保险人负担。
+本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
+        </is>
+      </c>
+      <c r="R61" s="4" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="S61" s="3" t="inlineStr">
+        <is>
+          <t>模糊匹配</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>损失通知条款</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr"/>
+      <c r="D62" s="3" t="inlineStr"/>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加损失通知条款</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111825493</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，本保单若有其他内容与本条款不符，以本条款为准。在通知保险人发生或可能发生保险事故时，被保险人的权利不得因其非有意的延迟、错误、疏漏而受到损害。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H62" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J62" s="3" t="inlineStr"/>
+      <c r="K62" s="3" t="inlineStr"/>
+      <c r="L62" s="3" t="inlineStr"/>
+      <c r="M62" s="3" t="inlineStr"/>
+      <c r="N62" s="3" t="inlineStr"/>
+      <c r="O62" s="3" t="inlineStr"/>
+      <c r="P62" s="3" t="inlineStr"/>
+      <c r="Q62" s="3" t="inlineStr"/>
+      <c r="R62" s="3" t="inlineStr"/>
+      <c r="S62" s="3" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>清理残骸条款（限额：理算金额的20%）</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr"/>
+      <c r="D63" s="3" t="inlineStr"/>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加清理残骸条款</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112039653</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，保险人负责赔偿被保险人因本保险单项下承保的风险造成保险财产损失而发生的清除、拆除或支撑受损财产的费用，但是本扩展条款项下的全部赔偿金额不得超过保单列明的限额，赔偿限额以保单载明的金额为准。
+本保险单所载其他条件均不变。</t>
+        </is>
+      </c>
+      <c r="H63" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J63" s="3" t="inlineStr"/>
+      <c r="K63" s="3" t="inlineStr"/>
+      <c r="L63" s="3" t="inlineStr"/>
+      <c r="M63" s="3" t="inlineStr"/>
+      <c r="N63" s="3" t="inlineStr"/>
+      <c r="O63" s="3" t="inlineStr"/>
+      <c r="P63" s="3" t="inlineStr"/>
+      <c r="Q63" s="3" t="inlineStr"/>
+      <c r="R63" s="3" t="inlineStr"/>
+      <c r="S63" s="3" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>物理性爆炸条款</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr"/>
+      <c r="D64" s="3" t="inlineStr"/>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加物理性爆炸条款</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111934433</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，本保险扩展承保机器设备（包括但不限于锅炉等压力容器）因物理性爆炸所致的损失。
+本附加险根据保险单的约定收取保险费。
+本保险所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H64" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="inlineStr"/>
+      <c r="K64" s="3" t="inlineStr"/>
+      <c r="L64" s="3" t="inlineStr"/>
+      <c r="M64" s="3" t="inlineStr"/>
+      <c r="N64" s="3" t="inlineStr"/>
+      <c r="O64" s="3" t="inlineStr"/>
+      <c r="P64" s="3" t="inlineStr"/>
+      <c r="Q64" s="3" t="inlineStr"/>
+      <c r="R64" s="3" t="inlineStr"/>
+      <c r="S64" s="3" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>自动恢复保险金额条款</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr"/>
+      <c r="D65" s="3" t="inlineStr"/>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加自动恢复保险金额条款</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112455833</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险通用附加险条款适用于各类企业财产保险。
+兹经双方同意，本保险单项下各项保险财产的保险金额不因损失而减少。如受损标的的赔偿金额超过保险单明细表对应项目保险金额的按保险单载明的比例时，应保险人要求，被保险人需补缴自损失发生之日起至保险期限终止之日止超出按保险单载明的比例部分的按日比例计算的附加保险费。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J65" s="3" t="inlineStr"/>
+      <c r="K65" s="3" t="inlineStr"/>
+      <c r="L65" s="3" t="inlineStr"/>
+      <c r="M65" s="3" t="inlineStr"/>
+      <c r="N65" s="3" t="inlineStr"/>
+      <c r="O65" s="3" t="inlineStr"/>
+      <c r="P65" s="3" t="inlineStr"/>
+      <c r="Q65" s="3" t="inlineStr"/>
+      <c r="R65" s="3" t="inlineStr"/>
+      <c r="S65" s="3" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>获得新设备条款</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr"/>
+      <c r="D66" s="3" t="inlineStr"/>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加新机器设备特约条款</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112152343</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，对于未来一年投入的新机器设备，保险人对于其投入生产时，其机器设备调试、检修阶段发生的由于本保险责任范围内的损失负责赔偿。
+本附加险根据保险单的约定收取保险费。本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J66" s="3" t="inlineStr"/>
+      <c r="K66" s="3" t="inlineStr"/>
+      <c r="L66" s="3" t="inlineStr"/>
+      <c r="M66" s="3" t="inlineStr"/>
+      <c r="N66" s="3" t="inlineStr"/>
+      <c r="O66" s="3" t="inlineStr"/>
+      <c r="P66" s="3" t="inlineStr"/>
+      <c r="Q66" s="3" t="inlineStr"/>
+      <c r="R66" s="3" t="inlineStr"/>
+      <c r="S66" s="3" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>设备运行媒介条款</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr"/>
+      <c r="D67" s="3" t="inlineStr"/>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加媒介物、易损易耗品扩展条款（2022版）</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112151053</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>本条款适用主险为机器损坏险。
+经双方同意,本保险合同扩展承保包括但不限于润滑油、冷却油、燃料、催化剂在内的媒介物损失以及易损易耗品（包括但不限于各种传送带、缆绳、金属线、链条等），发生保险事故并造成损失，保险公司负责赔偿。
+本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
+        </is>
+      </c>
+      <c r="H67" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J67" s="3" t="inlineStr"/>
+      <c r="K67" s="3" t="inlineStr"/>
+      <c r="L67" s="3" t="inlineStr"/>
+      <c r="M67" s="3" t="inlineStr"/>
+      <c r="N67" s="3" t="inlineStr"/>
+      <c r="O67" s="3" t="inlineStr"/>
+      <c r="P67" s="3" t="inlineStr"/>
+      <c r="Q67" s="3" t="inlineStr"/>
+      <c r="R67" s="3" t="inlineStr"/>
+      <c r="S67" s="3" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>通译和标题条款</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr"/>
+      <c r="D68" s="3" t="inlineStr"/>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加通译和标题条款</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112041003</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险通用附加险条款适用于各类企业财产保险。
+经保险双方约定，本保险单主要包含明细表、保险责任、除外责任、普通条款和特别约定条款以及此保险单包含的其他条款和以此为基础做出的批单条款，各部分内容均应作为整体理解。如果保险单某一部分有任何词汇或表达被赋予特定意义，则该词汇无论出现在保险单哪一部分均应表达该特定意义，除非该意义与上下文不符。
+如果保险单中使用了被保险人和保险人之外的词汇来代表本保险单的赔偿方和风险投保方，兹经双方同意，上述词汇的意义应当与被保险人和保险人相同。
+双方还同意：
+a.	具有人称含义的词语包含公司和其他法律实体；
+b.	单数词汇应视为同时包含复数形式，复数亦然；
+c.	具备词性的词汇在保险单中再次出现时词性一致。
+如果本保险单各条款、规定、条件之间有任何解释上的冲突，应当以最有利于被保险人的解释为准。如果本保险单任何条款被相关法律认定无效，不能执行，本保险单将视为无此条款，而保险单其他部分应当保持完全效力。
+标题仅为易于查阅用途。兹约定，相应的保险单条款不应仅仅按照其标题来解释。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J68" s="3" t="inlineStr"/>
+      <c r="K68" s="3" t="inlineStr"/>
+      <c r="L68" s="3" t="inlineStr"/>
+      <c r="M68" s="3" t="inlineStr"/>
+      <c r="N68" s="3" t="inlineStr"/>
+      <c r="O68" s="3" t="inlineStr"/>
+      <c r="P68" s="3" t="inlineStr"/>
+      <c r="Q68" s="3" t="inlineStr"/>
+      <c r="R68" s="3" t="inlineStr"/>
+      <c r="S68" s="3" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>重新启动机器设备费用条款（每次事故及累计赔偿限额RMB2,000,000.00）</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr"/>
+      <c r="D69" s="3" t="inlineStr"/>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加重新启动机器设备费用条款</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112040163</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，本保险扩展承保由于保险事故造成机器设备损坏，而设备在维修或重置后重新启动所产生的相关费用，包括但不限于燃油费、燃气费、水费、电费等。
+每次事故赔偿限额由保险双方约定并在保险单中载明。
+本附加险根据保险单的约定收取保险费。本保险所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H69" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J69" s="3" t="inlineStr"/>
+      <c r="K69" s="3" t="inlineStr"/>
+      <c r="L69" s="3" t="inlineStr"/>
+      <c r="M69" s="3" t="inlineStr"/>
+      <c r="N69" s="3" t="inlineStr"/>
+      <c r="O69" s="3" t="inlineStr"/>
+      <c r="P69" s="3" t="inlineStr"/>
+      <c r="Q69" s="3" t="inlineStr"/>
+      <c r="R69" s="3" t="inlineStr"/>
+      <c r="S69" s="3" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>重置价值条款（facility措辞）</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr"/>
+      <c r="D70" s="3" t="inlineStr"/>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加重置价值条款N</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112455753</t>
+        </is>
+      </c>
+      <c r="G70" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，以下列特别条件为准，本保险单项下明细表中列明的财产（不包括仓储物品），如发生本保险责任范围内的损失，其赔偿金额应按受损保险财产的重置价值计算。
+重置价值是指：
+（1）重建或替换受损财产；
+但本保险的赔偿责任不能因下列原因而增加：
+①被保险人要求按自己的方式进行重建或替换受损财产；
+②被保险人在其他地点进行重建或替换受损财产。
+（2）修理或修复受损财产；
+无论属于哪一种情况，受损财产应达到等同或基本近似但不超出其崭新时的状态。
+特别条件：
+被保险财产若发生部分损失，需进行修理或修复的费用不能超过该财产全部损失应赔偿的金额。
+（3）若遇下列情况，保险人的赔偿最高将按受损保险财产的市价计算：
+①被保险人没有合理的原因和理由推迟、延误重建或修复工作；
+②被保险人没有对受损财产进行重建、替换或修复；
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H70" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J70" s="3" t="inlineStr"/>
+      <c r="K70" s="3" t="inlineStr"/>
+      <c r="L70" s="3" t="inlineStr"/>
+      <c r="M70" s="3" t="inlineStr"/>
+      <c r="N70" s="3" t="inlineStr"/>
+      <c r="O70" s="3" t="inlineStr"/>
+      <c r="P70" s="3" t="inlineStr"/>
+      <c r="Q70" s="3" t="inlineStr"/>
+      <c r="R70" s="3" t="inlineStr"/>
+      <c r="S70" s="3" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>错误与遗漏条款</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr"/>
+      <c r="D71" s="3" t="inlineStr"/>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加错误和遗漏条款（A款）</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025112151763</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，在本保险项下保险人的责任不会因被保险人非故意的疏忽或过失而延迟或错误或遗漏向保险人申报或误述所保险财产、利益、责任的情况或保险价值的变更，保险标的危险程度增加或其它重要事项而受拒付。被保险人在本保险合同项下的权益不受影响。但被保险人一旦明白其疏忽或错误或遗漏应立即向保险人申报上述情况。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H71" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J71" s="3" t="inlineStr"/>
+      <c r="K71" s="3" t="inlineStr"/>
+      <c r="L71" s="3" t="inlineStr"/>
+      <c r="M71" s="3" t="inlineStr"/>
+      <c r="N71" s="3" t="inlineStr"/>
+      <c r="O71" s="3" t="inlineStr"/>
+      <c r="P71" s="3" t="inlineStr"/>
+      <c r="Q71" s="3" t="inlineStr"/>
+      <c r="R71" s="3" t="inlineStr"/>
+      <c r="S71" s="3" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>预付赔偿条款（定损金额的50%）</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr"/>
+      <c r="D72" s="3" t="inlineStr"/>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加预付赔款条款（A款）</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111933123</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意，如保险财产遭受保险单项下承保责任的损失，应被保险人的要求和理算师的建议，保险人同意按照保单中约定的初步估损金额的比例先行预付赔款。该预付赔款将在最终的赔款中全额扣除。如最终赔款金额少于预付赔款，被保险人应当退还赔款差额。
+本保险单所载其他条件不变。</t>
+        </is>
+      </c>
+      <c r="H72" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J72" s="3" t="inlineStr"/>
+      <c r="K72" s="3" t="inlineStr"/>
+      <c r="L72" s="3" t="inlineStr"/>
+      <c r="M72" s="3" t="inlineStr"/>
+      <c r="N72" s="3" t="inlineStr"/>
+      <c r="O72" s="3" t="inlineStr"/>
+      <c r="P72" s="3" t="inlineStr"/>
+      <c r="Q72" s="3" t="inlineStr"/>
+      <c r="R72" s="3" t="inlineStr"/>
+      <c r="S72" s="3" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>免现场查勘条款</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr"/>
+      <c r="D73" s="3" t="inlineStr"/>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>企业财产保险附加免检条款</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>C00001430622025111825703</t>
+        </is>
+      </c>
+      <c r="G73" s="3" t="inlineStr">
+        <is>
+          <t>兹经双方同意并约定，第一部分项下的索赔如果预计金额不超过保险单上载明的人民币金额（已扣减应适用的免赔额），此索赔无需进行查勘即予认可，被保险人无需事先同保险人协商即可着手修复，但应向保险人递交一份附有支持文件的全面的书面事故报告，并保留所有损失照片。尽管有前述规定，保险人保留检查损失现场的权利。本保险单所载其他条件不变。
+本附加条款与主条款内容相悖之处，以本附加条款为准；未尽之处，以主条款为准。</t>
+        </is>
+      </c>
+      <c r="H73" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" s="6" t="inlineStr">
+        <is>
+          <t>精确匹配</t>
+        </is>
+      </c>
+      <c r="J73" s="3" t="inlineStr"/>
+      <c r="K73" s="3" t="inlineStr"/>
+      <c r="L73" s="3" t="inlineStr"/>
+      <c r="M73" s="3" t="inlineStr"/>
+      <c r="N73" s="3" t="inlineStr"/>
+      <c r="O73" s="3" t="inlineStr"/>
+      <c r="P73" s="3" t="inlineStr"/>
+      <c r="Q73" s="3" t="inlineStr"/>
+      <c r="R73" s="3" t="inlineStr"/>
+      <c r="S73" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
